--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_14_35.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_14_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1429253.220364937</v>
+        <v>1426954.567450688</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23486610.5597444</v>
+        <v>23486610.55974441</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861474</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
         <v>22.63172268683286</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>7.602798843930202</v>
+        <v>7.602798843930213</v>
       </c>
       <c r="Y2" t="n">
         <v>1.283897344658556</v>
@@ -749,61 +749,61 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>24.76484596498756</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>24.76484596498758</v>
+      </c>
+      <c r="T3" t="n">
         <v>28.11631013281968</v>
       </c>
-      <c r="H3" t="n">
+      <c r="U3" t="n">
         <v>28.11631013281968</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
       <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
         <v>28.11631013281968</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
         <v>24.76484596498758</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="F4" t="n">
         <v>28.11631013281968</v>
       </c>
       <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>28.11631013281968</v>
-      </c>
-      <c r="H4" t="n">
-        <v>28.11631013281968</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -977,19 +977,19 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>24.76484596498758</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>24.76484596498756</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="H6" t="n">
         <v>28.11631013281968</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>24.76484596498756</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>28.11631013281968</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>24.76484596498756</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>24.76484596498756</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1229,58 +1229,58 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
         <v>28.11631013281968</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
+      <c r="Y9" t="n">
         <v>28.11631013281968</v>
-      </c>
-      <c r="T9" t="n">
-        <v>28.11631013281968</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>24.76484596498756</v>
       </c>
     </row>
     <row r="10">
@@ -1290,76 +1290,76 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>28.11631013281968</v>
+      </c>
+      <c r="D10" t="n">
+        <v>28.11631013281968</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>28.11631013281968</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
         <v>24.76484596498756</v>
       </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
       <c r="V10" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>66.65213399554695</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>49.43645509234562</v>
       </c>
       <c r="H11" t="n">
-        <v>279.8515591943052</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>69.86271419048811</v>
       </c>
       <c r="T11" t="n">
-        <v>212.2884438087945</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>255.6538892153287</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>16.95209132584754</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>156.9548995066969</v>
+        <v>33.6497232857122</v>
       </c>
       <c r="T13" t="n">
         <v>238.0916429637043</v>
@@ -1596,7 +1596,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>83.82207308032339</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1609,22 +1609,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868328</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>398.8272831086574</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>181.138243493221</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>69.86271419048811</v>
       </c>
       <c r="T14" t="n">
         <v>212.2884438087945</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.6538892153287</v>
       </c>
       <c r="V14" t="n">
-        <v>353.9145207250129</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026565</v>
+        <v>263.2788617437339</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>143.9220539163595</v>
       </c>
       <c r="C16" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>38.37842892351136</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
@@ -1785,7 +1785,7 @@
         <v>136.5021430764245</v>
       </c>
       <c r="I16" t="n">
-        <v>78.96292111239987</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>245.4834927929534</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>420.8729399924937</v>
@@ -1861,7 +1861,7 @@
         <v>398.8272831086575</v>
       </c>
       <c r="H17" t="n">
-        <v>279.8515591943052</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1903,10 +1903,10 @@
         <v>255.6538892153287</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>323.8708205151071</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>163.9357313989399</v>
       </c>
       <c r="H19" t="n">
-        <v>92.15988796783874</v>
+        <v>92.15988796783873</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>314.2829383410268</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>279.8515591943052</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>69.86271419048811</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>30.4966955810584</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -2247,7 +2247,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>41.24094756768937</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
@@ -2256,10 +2256,10 @@
         <v>163.9357313989399</v>
       </c>
       <c r="H22" t="n">
-        <v>136.5021430764245</v>
+        <v>75.20779664199138</v>
       </c>
       <c r="I22" t="n">
-        <v>78.96292111239987</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>16.95209132584753</v>
       </c>
       <c r="S22" t="n">
         <v>156.9548995066969</v>
@@ -2374,7 +2374,7 @@
         <v>212.2884438087945</v>
       </c>
       <c r="U23" t="n">
-        <v>255.6538892153272</v>
+        <v>255.6538892153281</v>
       </c>
       <c r="V23" t="n">
         <v>353.914520725013</v>
@@ -2487,16 +2487,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>46.83798026219934</v>
       </c>
       <c r="G25" t="n">
         <v>163.9357313989399</v>
       </c>
       <c r="H25" t="n">
-        <v>92.15988796783846</v>
+        <v>136.5021430764245</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>78.96292111239987</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>69.86271419048811</v>
       </c>
       <c r="T26" t="n">
-        <v>212.2884438087948</v>
+        <v>212.2884438087945</v>
       </c>
       <c r="U26" t="n">
         <v>255.653889215329</v>
@@ -2730,7 +2730,7 @@
         <v>163.9357313989399</v>
       </c>
       <c r="H28" t="n">
-        <v>136.5021430764245</v>
+        <v>92.15988796783849</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>179.7370855185694</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486148</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
         <v>422.6317226868329</v>
@@ -2800,16 +2800,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>421.7171704536211</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924938</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
         <v>398.8272831086575</v>
       </c>
       <c r="H29" t="n">
-        <v>279.8515591943053</v>
+        <v>279.8515591943045</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>69.86271419048818</v>
+        <v>69.86271419048811</v>
       </c>
       <c r="T29" t="n">
-        <v>212.2884438087946</v>
+        <v>212.2884438087945</v>
       </c>
       <c r="U29" t="n">
-        <v>255.653889215329</v>
+        <v>255.6538892153287</v>
       </c>
       <c r="V29" t="n">
-        <v>353.9145207250131</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439303</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
         <v>401.2838973446586</v>
@@ -2952,10 +2952,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>125.9105823812872</v>
       </c>
       <c r="D31" t="n">
-        <v>38.37842892351103</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
@@ -2970,7 +2970,7 @@
         <v>136.5021430764245</v>
       </c>
       <c r="I31" t="n">
-        <v>78.96292111239987</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3082,10 +3082,10 @@
         <v>69.86271419048811</v>
       </c>
       <c r="T32" t="n">
-        <v>212.2884438087945</v>
+        <v>212.2884438087948</v>
       </c>
       <c r="U32" t="n">
-        <v>255.653889215329</v>
+        <v>255.6538892153281</v>
       </c>
       <c r="V32" t="n">
         <v>353.914520725013</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>143.922053916359</v>
       </c>
       <c r="C34" t="n">
         <v>170.2528374898731</v>
@@ -3204,7 +3204,7 @@
         <v>163.9357313989399</v>
       </c>
       <c r="H34" t="n">
-        <v>92.15988796783844</v>
+        <v>136.5021430764245</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>223.3458872758571</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>420.8729399924937</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>69.86271419048811</v>
       </c>
       <c r="T35" t="n">
         <v>212.2884438087945</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.6538892153287</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>7.293115845744104</v>
       </c>
     </row>
     <row r="36">
@@ -3429,7 +3429,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>21.42633759766491</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
@@ -3441,10 +3441,10 @@
         <v>163.9357313989399</v>
       </c>
       <c r="H37" t="n">
-        <v>136.5021430764245</v>
+        <v>92.15988796783873</v>
       </c>
       <c r="I37" t="n">
-        <v>78.96292111239987</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>16.95209132584754</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>156.9548995066969</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>398.8272831086575</v>
+        <v>397.2639378123995</v>
       </c>
       <c r="H38" t="n">
         <v>279.8515591943052</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>69.86271419048811</v>
       </c>
       <c r="T38" t="n">
         <v>212.2884438087945</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.6538892153287</v>
       </c>
       <c r="V38" t="n">
         <v>353.914520725013</v>
@@ -3568,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>297.2861485815559</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>48.00704147811307</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
         <v>170.2528374898731</v>
@@ -3678,7 +3678,7 @@
         <v>163.9357313989399</v>
       </c>
       <c r="H40" t="n">
-        <v>136.5021430764245</v>
+        <v>13.19696685543976</v>
       </c>
       <c r="I40" t="n">
         <v>78.96292111239987</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>16.95209132584754</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>156.9548995066969</v>
@@ -3742,22 +3742,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>291.0566323765956</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>12.51617518962314</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>398.8272831086575</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>279.8515591943052</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>69.86271419048811</v>
       </c>
       <c r="T41" t="n">
         <v>212.2884438087945</v>
@@ -3799,7 +3799,7 @@
         <v>255.6538892153287</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
@@ -3808,7 +3808,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3903,10 +3903,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>38.37842892351227</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28885624184291</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>16.95209132584754</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>156.9548995066969</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>314.2829383410277</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
@@ -3988,13 +3988,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>398.8272831086575</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>279.8515591943052</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4033,13 +4033,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>33.25459158460029</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
@@ -4152,10 +4152,10 @@
         <v>163.9357313989399</v>
       </c>
       <c r="H46" t="n">
-        <v>136.5021430764245</v>
+        <v>92.15988796783873</v>
       </c>
       <c r="I46" t="n">
-        <v>78.96292111239987</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>16.95209132584754</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>156.9548995066969</v>
       </c>
       <c r="T46" t="n">
-        <v>97.83437541687262</v>
+        <v>238.0916429637043</v>
       </c>
       <c r="U46" t="n">
         <v>277.346676635984</v>
@@ -4330,13 +4330,13 @@
         <v>2.249304810625575</v>
       </c>
       <c r="J2" t="n">
-        <v>2.249304810625575</v>
+        <v>30.08445184211706</v>
       </c>
       <c r="K2" t="n">
-        <v>2.249304810625575</v>
+        <v>56.79494646829576</v>
       </c>
       <c r="L2" t="n">
-        <v>28.95979943680427</v>
+        <v>56.79494646829576</v>
       </c>
       <c r="M2" t="n">
         <v>56.79494646829576</v>
@@ -4372,7 +4372,7 @@
         <v>112.4652405312787</v>
       </c>
       <c r="X2" t="n">
-        <v>104.7856457394301</v>
+        <v>104.78564573943</v>
       </c>
       <c r="Y2" t="n">
         <v>103.4887797347244</v>
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>84.0649272658043</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="C3" t="n">
-        <v>84.0649272658043</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="D3" t="n">
-        <v>84.0649272658043</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="E3" t="n">
-        <v>84.0649272658043</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="F3" t="n">
-        <v>59.04993134157444</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="G3" t="n">
-        <v>30.6496180761</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="H3" t="n">
         <v>2.249304810625575</v>
@@ -4409,52 +4409,52 @@
         <v>9.695947772537416</v>
       </c>
       <c r="J3" t="n">
-        <v>37.5310948040289</v>
+        <v>9.695947772537416</v>
       </c>
       <c r="K3" t="n">
         <v>37.5310948040289</v>
       </c>
       <c r="L3" t="n">
-        <v>65.36624183552038</v>
+        <v>37.5310948040289</v>
       </c>
       <c r="M3" t="n">
-        <v>65.36624183552038</v>
+        <v>37.5310948040289</v>
       </c>
       <c r="N3" t="n">
-        <v>65.36624183552038</v>
+        <v>37.5310948040289</v>
       </c>
       <c r="O3" t="n">
-        <v>65.36624183552038</v>
+        <v>56.79494646829576</v>
       </c>
       <c r="P3" t="n">
-        <v>65.36624183552038</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="Q3" t="n">
-        <v>93.20138886701187</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="R3" t="n">
         <v>112.4652405312787</v>
       </c>
       <c r="S3" t="n">
-        <v>112.4652405312787</v>
+        <v>87.45024460704886</v>
       </c>
       <c r="T3" t="n">
-        <v>112.4652405312787</v>
+        <v>59.04993134157444</v>
       </c>
       <c r="U3" t="n">
-        <v>112.4652405312787</v>
+        <v>30.6496180761</v>
       </c>
       <c r="V3" t="n">
-        <v>84.0649272658043</v>
+        <v>30.6496180761</v>
       </c>
       <c r="W3" t="n">
-        <v>84.0649272658043</v>
+        <v>30.6496180761</v>
       </c>
       <c r="X3" t="n">
-        <v>84.0649272658043</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="Y3" t="n">
-        <v>84.0649272658043</v>
+        <v>2.249304810625575</v>
       </c>
     </row>
     <row r="4">
@@ -4464,46 +4464,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>87.45024460704886</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="C4" t="n">
-        <v>87.45024460704886</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="D4" t="n">
         <v>87.45024460704886</v>
       </c>
       <c r="E4" t="n">
-        <v>87.45024460704886</v>
+        <v>59.04993134157444</v>
       </c>
       <c r="F4" t="n">
-        <v>59.04993134157444</v>
+        <v>30.6496180761</v>
       </c>
       <c r="G4" t="n">
         <v>30.6496180761</v>
       </c>
       <c r="H4" t="n">
-        <v>2.249304810625575</v>
+        <v>30.6496180761</v>
       </c>
       <c r="I4" t="n">
         <v>2.249304810625575</v>
       </c>
       <c r="J4" t="n">
+        <v>2.249304810625575</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.249304810625575</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.249304810625575</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2.249304810625575</v>
+      </c>
+      <c r="N4" t="n">
         <v>28.95979943680427</v>
       </c>
-      <c r="K4" t="n">
+      <c r="O4" t="n">
         <v>56.79494646829576</v>
-      </c>
-      <c r="L4" t="n">
-        <v>84.63009349978725</v>
-      </c>
-      <c r="M4" t="n">
-        <v>84.63009349978725</v>
-      </c>
-      <c r="N4" t="n">
-        <v>84.63009349978725</v>
-      </c>
-      <c r="O4" t="n">
-        <v>84.63009349978725</v>
       </c>
       <c r="P4" t="n">
         <v>84.63009349978725</v>
@@ -4570,25 +4570,25 @@
         <v>30.08445184211706</v>
       </c>
       <c r="K5" t="n">
-        <v>30.08445184211706</v>
+        <v>57.91959887360855</v>
       </c>
       <c r="L5" t="n">
-        <v>30.08445184211706</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="M5" t="n">
-        <v>30.08445184211706</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="N5" t="n">
-        <v>30.08445184211706</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="O5" t="n">
-        <v>57.91959887360855</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="P5" t="n">
-        <v>85.75474590510004</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="Q5" t="n">
-        <v>112.4652405312787</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="R5" t="n">
         <v>112.4652405312787</v>
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>55.66461400032987</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="C6" t="n">
-        <v>55.66461400032987</v>
+        <v>87.45024460704886</v>
       </c>
       <c r="D6" t="n">
-        <v>55.66461400032987</v>
+        <v>87.45024460704886</v>
       </c>
       <c r="E6" t="n">
-        <v>30.6496180761</v>
+        <v>87.45024460704886</v>
       </c>
       <c r="F6" t="n">
-        <v>30.6496180761</v>
+        <v>59.04993134157444</v>
       </c>
       <c r="G6" t="n">
         <v>30.6496180761</v>
@@ -4646,22 +4646,22 @@
         <v>9.695947772537416</v>
       </c>
       <c r="J6" t="n">
-        <v>37.5310948040289</v>
+        <v>9.695947772537416</v>
       </c>
       <c r="K6" t="n">
-        <v>37.5310948040289</v>
+        <v>9.695947772537416</v>
       </c>
       <c r="L6" t="n">
-        <v>37.5310948040289</v>
+        <v>9.695947772537416</v>
       </c>
       <c r="M6" t="n">
-        <v>37.5310948040289</v>
+        <v>9.695947772537416</v>
       </c>
       <c r="N6" t="n">
-        <v>37.5310948040289</v>
+        <v>28.95979943680427</v>
       </c>
       <c r="O6" t="n">
-        <v>56.79494646829576</v>
+        <v>28.95979943680427</v>
       </c>
       <c r="P6" t="n">
         <v>56.79494646829576</v>
@@ -4679,19 +4679,19 @@
         <v>112.4652405312787</v>
       </c>
       <c r="U6" t="n">
-        <v>84.0649272658043</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="V6" t="n">
-        <v>84.0649272658043</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="W6" t="n">
-        <v>84.0649272658043</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="X6" t="n">
-        <v>84.0649272658043</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="Y6" t="n">
-        <v>55.66461400032987</v>
+        <v>112.4652405312787</v>
       </c>
     </row>
     <row r="7">
@@ -4701,10 +4701,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>84.0649272658043</v>
+        <v>59.04993134157444</v>
       </c>
       <c r="C7" t="n">
-        <v>84.0649272658043</v>
+        <v>59.04993134157444</v>
       </c>
       <c r="D7" t="n">
         <v>59.04993134157444</v>
@@ -4713,31 +4713,31 @@
         <v>59.04993134157444</v>
       </c>
       <c r="F7" t="n">
+        <v>59.04993134157444</v>
+      </c>
+      <c r="G7" t="n">
+        <v>59.04993134157444</v>
+      </c>
+      <c r="H7" t="n">
         <v>30.6496180761</v>
-      </c>
-      <c r="G7" t="n">
-        <v>30.6496180761</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2.249304810625575</v>
       </c>
       <c r="I7" t="n">
         <v>2.249304810625575</v>
       </c>
       <c r="J7" t="n">
-        <v>2.249304810625575</v>
+        <v>30.08445184211706</v>
       </c>
       <c r="K7" t="n">
-        <v>28.95979943680427</v>
+        <v>57.91959887360855</v>
       </c>
       <c r="L7" t="n">
-        <v>28.95979943680427</v>
+        <v>57.91959887360855</v>
       </c>
       <c r="M7" t="n">
-        <v>28.95979943680427</v>
+        <v>57.91959887360855</v>
       </c>
       <c r="N7" t="n">
-        <v>56.79494646829576</v>
+        <v>57.91959887360855</v>
       </c>
       <c r="O7" t="n">
         <v>84.63009349978725</v>
@@ -4749,28 +4749,28 @@
         <v>112.4652405312787</v>
       </c>
       <c r="R7" t="n">
-        <v>112.4652405312787</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="S7" t="n">
-        <v>112.4652405312787</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="T7" t="n">
-        <v>112.4652405312787</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="U7" t="n">
-        <v>112.4652405312787</v>
+        <v>59.04993134157444</v>
       </c>
       <c r="V7" t="n">
-        <v>112.4652405312787</v>
+        <v>59.04993134157444</v>
       </c>
       <c r="W7" t="n">
-        <v>112.4652405312787</v>
+        <v>59.04993134157444</v>
       </c>
       <c r="X7" t="n">
-        <v>84.0649272658043</v>
+        <v>59.04993134157444</v>
       </c>
       <c r="Y7" t="n">
-        <v>84.0649272658043</v>
+        <v>59.04993134157444</v>
       </c>
     </row>
     <row r="8">
@@ -4804,28 +4804,28 @@
         <v>2.249304810625575</v>
       </c>
       <c r="J8" t="n">
-        <v>28.95979943680427</v>
+        <v>30.08445184211706</v>
       </c>
       <c r="K8" t="n">
-        <v>28.95979943680427</v>
+        <v>57.91959887360855</v>
       </c>
       <c r="L8" t="n">
-        <v>28.95979943680427</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="M8" t="n">
-        <v>28.95979943680427</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="N8" t="n">
-        <v>28.95979943680427</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="O8" t="n">
-        <v>28.95979943680427</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="P8" t="n">
-        <v>56.79494646829576</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="Q8" t="n">
-        <v>84.63009349978725</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="R8" t="n">
         <v>112.4652405312787</v>
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>30.6496180761</v>
+        <v>27.26430073485544</v>
       </c>
       <c r="C9" t="n">
-        <v>30.6496180761</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="D9" t="n">
-        <v>30.6496180761</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="E9" t="n">
-        <v>30.6496180761</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="F9" t="n">
-        <v>30.6496180761</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="G9" t="n">
-        <v>30.6496180761</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="H9" t="n">
         <v>2.249304810625575</v>
@@ -4886,10 +4886,10 @@
         <v>9.695947772537416</v>
       </c>
       <c r="K9" t="n">
-        <v>37.5310948040289</v>
+        <v>28.95979943680427</v>
       </c>
       <c r="L9" t="n">
-        <v>56.79494646829576</v>
+        <v>28.95979943680427</v>
       </c>
       <c r="M9" t="n">
         <v>56.79494646829576</v>
@@ -4901,34 +4901,34 @@
         <v>56.79494646829576</v>
       </c>
       <c r="P9" t="n">
+        <v>56.79494646829576</v>
+      </c>
+      <c r="Q9" t="n">
         <v>84.63009349978725</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>112.4652405312787</v>
       </c>
       <c r="R9" t="n">
         <v>112.4652405312787</v>
       </c>
       <c r="S9" t="n">
+        <v>112.4652405312787</v>
+      </c>
+      <c r="T9" t="n">
+        <v>112.4652405312787</v>
+      </c>
+      <c r="U9" t="n">
+        <v>112.4652405312787</v>
+      </c>
+      <c r="V9" t="n">
+        <v>112.4652405312787</v>
+      </c>
+      <c r="W9" t="n">
+        <v>112.4652405312787</v>
+      </c>
+      <c r="X9" t="n">
         <v>84.0649272658043</v>
       </c>
-      <c r="T9" t="n">
+      <c r="Y9" t="n">
         <v>55.66461400032987</v>
-      </c>
-      <c r="U9" t="n">
-        <v>55.66461400032987</v>
-      </c>
-      <c r="V9" t="n">
-        <v>55.66461400032987</v>
-      </c>
-      <c r="W9" t="n">
-        <v>55.66461400032987</v>
-      </c>
-      <c r="X9" t="n">
-        <v>55.66461400032987</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>30.6496180761</v>
       </c>
     </row>
     <row r="10">
@@ -4938,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.249304810625575</v>
+        <v>59.04993134157444</v>
       </c>
       <c r="C10" t="n">
-        <v>2.249304810625575</v>
+        <v>30.6496180761</v>
       </c>
       <c r="D10" t="n">
         <v>2.249304810625575</v>
@@ -4962,22 +4962,22 @@
         <v>2.249304810625575</v>
       </c>
       <c r="J10" t="n">
+        <v>2.249304810625575</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.249304810625575</v>
+      </c>
+      <c r="L10" t="n">
         <v>30.08445184211706</v>
       </c>
-      <c r="K10" t="n">
-        <v>56.79494646829576</v>
-      </c>
-      <c r="L10" t="n">
-        <v>56.79494646829576</v>
-      </c>
       <c r="M10" t="n">
-        <v>84.63009349978725</v>
+        <v>57.91959887360855</v>
       </c>
       <c r="N10" t="n">
-        <v>84.63009349978725</v>
+        <v>85.75474590510004</v>
       </c>
       <c r="O10" t="n">
-        <v>84.63009349978725</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="P10" t="n">
         <v>112.4652405312787</v>
@@ -4986,28 +4986,28 @@
         <v>112.4652405312787</v>
       </c>
       <c r="R10" t="n">
-        <v>112.4652405312787</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="S10" t="n">
-        <v>112.4652405312787</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="T10" t="n">
-        <v>112.4652405312787</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="U10" t="n">
-        <v>112.4652405312787</v>
+        <v>59.04993134157444</v>
       </c>
       <c r="V10" t="n">
-        <v>84.0649272658043</v>
+        <v>59.04993134157444</v>
       </c>
       <c r="W10" t="n">
-        <v>55.66461400032987</v>
+        <v>59.04993134157444</v>
       </c>
       <c r="X10" t="n">
-        <v>55.66461400032987</v>
+        <v>59.04993134157444</v>
       </c>
       <c r="Y10" t="n">
-        <v>27.26430073485544</v>
+        <v>59.04993134157444</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>832.8190007640148</v>
+        <v>1382.020644160948</v>
       </c>
       <c r="C11" t="n">
-        <v>832.8190007640148</v>
+        <v>1382.020644160948</v>
       </c>
       <c r="D11" t="n">
-        <v>765.493612889725</v>
+        <v>958.7280233459487</v>
       </c>
       <c r="E11" t="n">
-        <v>765.493612889725</v>
+        <v>532.7510834938063</v>
       </c>
       <c r="F11" t="n">
-        <v>340.3694310791253</v>
+        <v>107.6269016832065</v>
       </c>
       <c r="G11" t="n">
-        <v>340.3694310791253</v>
+        <v>57.69108845861495</v>
       </c>
       <c r="H11" t="n">
-        <v>57.69108845861496</v>
+        <v>57.69108845861495</v>
       </c>
       <c r="I11" t="n">
         <v>79.53261889552354</v>
       </c>
       <c r="J11" t="n">
-        <v>173.7882360108206</v>
+        <v>565.5174547184467</v>
       </c>
       <c r="K11" t="n">
-        <v>323.2979820334617</v>
+        <v>715.0272007410879</v>
       </c>
       <c r="L11" t="n">
-        <v>514.7745788325551</v>
+        <v>906.5037975401813</v>
       </c>
       <c r="M11" t="n">
-        <v>732.9754699466407</v>
+        <v>1124.704688654267</v>
       </c>
       <c r="N11" t="n">
-        <v>1176.840384154583</v>
+        <v>1347.186042170147</v>
       </c>
       <c r="O11" t="n">
-        <v>1890.767603829943</v>
+        <v>1555.101895514054</v>
       </c>
       <c r="P11" t="n">
         <v>2062.612561716113</v>
       </c>
       <c r="Q11" t="n">
-        <v>2675.681804470532</v>
+        <v>2675.681804470531</v>
       </c>
       <c r="R11" t="n">
-        <v>2884.554422930748</v>
+        <v>2884.554422930747</v>
       </c>
       <c r="S11" t="n">
-        <v>2884.554422930748</v>
+        <v>2813.986024758537</v>
       </c>
       <c r="T11" t="n">
-        <v>2670.121651406713</v>
+        <v>2813.986024758537</v>
       </c>
       <c r="U11" t="n">
-        <v>2411.885399674058</v>
+        <v>2555.749773025882</v>
       </c>
       <c r="V11" t="n">
-        <v>2054.395984800308</v>
+        <v>2198.260358152132</v>
       </c>
       <c r="W11" t="n">
-        <v>1658.004635100655</v>
+        <v>1801.869008452479</v>
       </c>
       <c r="X11" t="n">
-        <v>1658.004635100655</v>
+        <v>1801.869008452479</v>
       </c>
       <c r="Y11" t="n">
-        <v>1252.667365055545</v>
+        <v>1801.869008452479</v>
       </c>
     </row>
     <row r="12">
@@ -5114,34 +5114,34 @@
         <v>103.40274270939</v>
       </c>
       <c r="H12" t="n">
-        <v>57.69108845861496</v>
+        <v>57.69108845861495</v>
       </c>
       <c r="I12" t="n">
-        <v>68.45996495438216</v>
+        <v>91.91727079879399</v>
       </c>
       <c r="J12" t="n">
-        <v>413.6425571317126</v>
+        <v>437.0998629761244</v>
       </c>
       <c r="K12" t="n">
-        <v>947.2501117407975</v>
+        <v>540.5223668683427</v>
       </c>
       <c r="L12" t="n">
-        <v>1093.841844291305</v>
+        <v>687.1140994188501</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.052972970405</v>
+        <v>861.3252280979506</v>
       </c>
       <c r="N12" t="n">
-        <v>1449.216356643059</v>
+        <v>1042.488611770604</v>
       </c>
       <c r="O12" t="n">
-        <v>1611.334742843901</v>
+        <v>1204.606997971446</v>
       </c>
       <c r="P12" t="n">
-        <v>1738.307417114941</v>
+        <v>1331.579672242487</v>
       </c>
       <c r="Q12" t="n">
-        <v>1815.073417879565</v>
+        <v>1709.617917594659</v>
       </c>
       <c r="R12" t="n">
         <v>1839.929095123789</v>
@@ -5196,13 +5196,13 @@
         <v>137.4516148347764</v>
       </c>
       <c r="I13" t="n">
-        <v>57.69108845861496</v>
+        <v>57.69108845861495</v>
       </c>
       <c r="J13" t="n">
-        <v>161.284608686422</v>
+        <v>161.2846086864216</v>
       </c>
       <c r="K13" t="n">
-        <v>463.5722733880323</v>
+        <v>463.572273388032</v>
       </c>
       <c r="L13" t="n">
         <v>915.2083926800957</v>
@@ -5217,31 +5217,31 @@
         <v>2333.485767027292</v>
       </c>
       <c r="P13" t="n">
-        <v>2702.951323608643</v>
+        <v>2702.951323608642</v>
       </c>
       <c r="Q13" t="n">
-        <v>2884.554422930748</v>
+        <v>2884.554422930747</v>
       </c>
       <c r="R13" t="n">
-        <v>2867.431098359185</v>
+        <v>2884.554422930747</v>
       </c>
       <c r="S13" t="n">
-        <v>2708.890795827168</v>
+        <v>2850.56480345023</v>
       </c>
       <c r="T13" t="n">
-        <v>2468.394186772921</v>
+        <v>2610.068194395983</v>
       </c>
       <c r="U13" t="n">
-        <v>2188.246028554756</v>
+        <v>2329.920036177818</v>
       </c>
       <c r="V13" t="n">
-        <v>1906.534561162785</v>
+        <v>2048.208568785847</v>
       </c>
       <c r="W13" t="n">
-        <v>1631.682157335298</v>
+        <v>1773.35616495836</v>
       </c>
       <c r="X13" t="n">
-        <v>1389.118260781103</v>
+        <v>1530.792268404165</v>
       </c>
       <c r="Y13" t="n">
         <v>1304.449500093908</v>
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1496.392522541779</v>
+        <v>480.9837092736147</v>
       </c>
       <c r="C14" t="n">
-        <v>1069.491792555079</v>
+        <v>480.9837092736147</v>
       </c>
       <c r="D14" t="n">
-        <v>1069.491792555079</v>
+        <v>57.69108845861495</v>
       </c>
       <c r="E14" t="n">
-        <v>643.5148527029367</v>
+        <v>57.69108845861495</v>
       </c>
       <c r="F14" t="n">
-        <v>643.5148527029367</v>
+        <v>57.69108845861495</v>
       </c>
       <c r="G14" t="n">
-        <v>240.6590111790402</v>
+        <v>57.69108845861495</v>
       </c>
       <c r="H14" t="n">
-        <v>57.69108845861494</v>
+        <v>57.69108845861495</v>
       </c>
       <c r="I14" t="n">
-        <v>79.53261889552353</v>
+        <v>79.53261889552354</v>
       </c>
       <c r="J14" t="n">
-        <v>173.7882360108206</v>
+        <v>565.5174547184467</v>
       </c>
       <c r="K14" t="n">
-        <v>323.2979820334617</v>
+        <v>1279.444674393807</v>
       </c>
       <c r="L14" t="n">
-        <v>514.7745788325551</v>
+        <v>1886.257071496556</v>
       </c>
       <c r="M14" t="n">
-        <v>1107.000730119708</v>
+        <v>2104.457962610642</v>
       </c>
       <c r="N14" t="n">
-        <v>1820.927949795068</v>
+        <v>2326.939316126522</v>
       </c>
       <c r="O14" t="n">
-        <v>2534.855169470428</v>
+        <v>2534.855169470429</v>
       </c>
       <c r="P14" t="n">
-        <v>2706.700127356598</v>
+        <v>2706.700127356599</v>
       </c>
       <c r="Q14" t="n">
         <v>2827.920462748282</v>
@@ -5305,25 +5305,25 @@
         <v>2884.554422930747</v>
       </c>
       <c r="S14" t="n">
-        <v>2884.554422930747</v>
+        <v>2813.986024758537</v>
       </c>
       <c r="T14" t="n">
-        <v>2670.121651406712</v>
+        <v>2599.553253234503</v>
       </c>
       <c r="U14" t="n">
-        <v>2670.121651406712</v>
+        <v>2341.317001501848</v>
       </c>
       <c r="V14" t="n">
-        <v>2312.632236532962</v>
+        <v>1983.827586628097</v>
       </c>
       <c r="W14" t="n">
-        <v>1916.240886833309</v>
+        <v>1717.889342442507</v>
       </c>
       <c r="X14" t="n">
-        <v>1916.240886833309</v>
+        <v>1306.169343610255</v>
       </c>
       <c r="Y14" t="n">
-        <v>1916.240886833309</v>
+        <v>900.8320735651448</v>
       </c>
     </row>
     <row r="15">
@@ -5351,34 +5351,34 @@
         <v>103.40274270939</v>
       </c>
       <c r="H15" t="n">
-        <v>57.69108845861494</v>
+        <v>57.69108845861495</v>
       </c>
       <c r="I15" t="n">
-        <v>68.45996495438214</v>
+        <v>91.91727079879399</v>
       </c>
       <c r="J15" t="n">
-        <v>357.1625630797112</v>
+        <v>437.0998629761244</v>
       </c>
       <c r="K15" t="n">
-        <v>460.5850669719295</v>
+        <v>540.5223668683427</v>
       </c>
       <c r="L15" t="n">
-        <v>607.1767995224368</v>
+        <v>687.1140994188501</v>
       </c>
       <c r="M15" t="n">
-        <v>781.3879282015373</v>
+        <v>861.3252280979506</v>
       </c>
       <c r="N15" t="n">
-        <v>962.5513118741904</v>
+        <v>1042.488611770604</v>
       </c>
       <c r="O15" t="n">
-        <v>1124.669698075033</v>
+        <v>1204.606997971446</v>
       </c>
       <c r="P15" t="n">
-        <v>1251.642372346073</v>
+        <v>1331.579672242487</v>
       </c>
       <c r="Q15" t="n">
-        <v>1815.073417879565</v>
+        <v>1709.617917594659</v>
       </c>
       <c r="R15" t="n">
         <v>1839.929095123789</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>989.7328483303413</v>
+        <v>1034.52300500568</v>
       </c>
       <c r="C16" t="n">
-        <v>817.7602852092573</v>
+        <v>862.5504418845964</v>
       </c>
       <c r="D16" t="n">
-        <v>778.9941953875286</v>
+        <v>699.2336690113671</v>
       </c>
       <c r="E16" t="n">
-        <v>612.7859895403822</v>
+        <v>533.0254631642206</v>
       </c>
       <c r="F16" t="n">
-        <v>440.9242153149426</v>
+        <v>361.163688938781</v>
       </c>
       <c r="G16" t="n">
-        <v>275.3325674372254</v>
+        <v>195.5720410610639</v>
       </c>
       <c r="H16" t="n">
-        <v>137.4516148347764</v>
+        <v>57.69108845861495</v>
       </c>
       <c r="I16" t="n">
-        <v>57.69108845861494</v>
+        <v>57.69108845861495</v>
       </c>
       <c r="J16" t="n">
-        <v>161.2846086864215</v>
+        <v>161.284608686422</v>
       </c>
       <c r="K16" t="n">
-        <v>463.5722733880316</v>
+        <v>463.572273388032</v>
       </c>
       <c r="L16" t="n">
-        <v>915.2083926800954</v>
+        <v>915.2083926800956</v>
       </c>
       <c r="M16" t="n">
         <v>1408.610993194761</v>
@@ -5451,7 +5451,7 @@
         <v>1885.888822445159</v>
       </c>
       <c r="O16" t="n">
-        <v>2333.485767027291</v>
+        <v>2333.485767027292</v>
       </c>
       <c r="P16" t="n">
         <v>2702.951323608642</v>
@@ -5466,7 +5466,7 @@
         <v>2726.01412039873</v>
       </c>
       <c r="T16" t="n">
-        <v>2485.517511344483</v>
+        <v>2485.517511344484</v>
       </c>
       <c r="U16" t="n">
         <v>2205.369353126318</v>
@@ -5491,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1594.326394265764</v>
+        <v>1735.864462594811</v>
       </c>
       <c r="C17" t="n">
-        <v>1594.326394265764</v>
+        <v>1308.963732608111</v>
       </c>
       <c r="D17" t="n">
-        <v>1594.326394265764</v>
+        <v>885.6711117931112</v>
       </c>
       <c r="E17" t="n">
-        <v>1168.349454413622</v>
+        <v>885.6711117931112</v>
       </c>
       <c r="F17" t="n">
-        <v>743.2252726030217</v>
+        <v>460.5469299825114</v>
       </c>
       <c r="G17" t="n">
-        <v>340.3694310791253</v>
+        <v>57.69108845861495</v>
       </c>
       <c r="H17" t="n">
-        <v>57.69108845861494</v>
+        <v>57.69108845861495</v>
       </c>
       <c r="I17" t="n">
-        <v>79.53261889552353</v>
+        <v>79.53261889552354</v>
       </c>
       <c r="J17" t="n">
         <v>565.5174547184467</v>
       </c>
       <c r="K17" t="n">
-        <v>715.0272007410879</v>
+        <v>1202.931567334727</v>
       </c>
       <c r="L17" t="n">
-        <v>1428.954420416448</v>
+        <v>1394.40816413382</v>
       </c>
       <c r="M17" t="n">
-        <v>1647.155311530533</v>
+        <v>1612.609055247906</v>
       </c>
       <c r="N17" t="n">
-        <v>2174.70065784877</v>
+        <v>1835.090408763786</v>
       </c>
       <c r="O17" t="n">
-        <v>2382.616511192678</v>
+        <v>2043.006262107693</v>
       </c>
       <c r="P17" t="n">
-        <v>2554.461469078848</v>
+        <v>2214.851219993864</v>
       </c>
       <c r="Q17" t="n">
-        <v>2675.681804470531</v>
+        <v>2827.920462748282</v>
       </c>
       <c r="R17" t="n">
         <v>2884.554422930747</v>
@@ -5545,22 +5545,22 @@
         <v>2813.986024758537</v>
       </c>
       <c r="T17" t="n">
-        <v>2599.553253234502</v>
+        <v>2599.553253234503</v>
       </c>
       <c r="U17" t="n">
-        <v>2341.317001501847</v>
+        <v>2341.317001501848</v>
       </c>
       <c r="V17" t="n">
-        <v>2341.317001501847</v>
+        <v>1983.827586628097</v>
       </c>
       <c r="W17" t="n">
-        <v>2014.174758557294</v>
+        <v>1983.827586628097</v>
       </c>
       <c r="X17" t="n">
-        <v>2014.174758557294</v>
+        <v>1983.827586628097</v>
       </c>
       <c r="Y17" t="n">
-        <v>2014.174758557294</v>
+        <v>1983.827586628097</v>
       </c>
     </row>
     <row r="18">
@@ -5588,31 +5588,31 @@
         <v>103.40274270939</v>
       </c>
       <c r="H18" t="n">
-        <v>57.69108845861494</v>
+        <v>57.69108845861495</v>
       </c>
       <c r="I18" t="n">
-        <v>68.45996495438214</v>
+        <v>91.91727079879399</v>
       </c>
       <c r="J18" t="n">
-        <v>121.5400646621215</v>
+        <v>437.0998629761244</v>
       </c>
       <c r="K18" t="n">
-        <v>309.030775453185</v>
+        <v>540.5223668683427</v>
       </c>
       <c r="L18" t="n">
-        <v>455.6225080036924</v>
+        <v>687.1140994188501</v>
       </c>
       <c r="M18" t="n">
-        <v>629.8336366827929</v>
+        <v>861.3252280979506</v>
       </c>
       <c r="N18" t="n">
-        <v>1343.760856358153</v>
+        <v>1042.488611770604</v>
       </c>
       <c r="O18" t="n">
-        <v>1505.879242558995</v>
+        <v>1204.606997971446</v>
       </c>
       <c r="P18" t="n">
-        <v>1632.851916830036</v>
+        <v>1331.579672242487</v>
       </c>
       <c r="Q18" t="n">
         <v>1709.617917594659</v>
@@ -5667,19 +5667,19 @@
         <v>150.7818843857248</v>
       </c>
       <c r="H19" t="n">
-        <v>57.69108845861494</v>
+        <v>57.69108845861495</v>
       </c>
       <c r="I19" t="n">
-        <v>57.69108845861494</v>
+        <v>57.69108845861495</v>
       </c>
       <c r="J19" t="n">
-        <v>161.2846086864214</v>
+        <v>161.2846086864215</v>
       </c>
       <c r="K19" t="n">
-        <v>463.5722733880318</v>
+        <v>463.5722733880319</v>
       </c>
       <c r="L19" t="n">
-        <v>915.2083926800952</v>
+        <v>915.2083926800956</v>
       </c>
       <c r="M19" t="n">
         <v>1408.610993194761</v>
@@ -5703,7 +5703,7 @@
         <v>2726.01412039873</v>
       </c>
       <c r="T19" t="n">
-        <v>2485.517511344483</v>
+        <v>2485.517511344484</v>
       </c>
       <c r="U19" t="n">
         <v>2205.369353126318</v>
@@ -5728,49 +5728,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2076.443074398841</v>
+        <v>1188.786233704725</v>
       </c>
       <c r="C20" t="n">
-        <v>1649.542344412142</v>
+        <v>1188.786233704725</v>
       </c>
       <c r="D20" t="n">
-        <v>1226.249723597142</v>
+        <v>765.493612889725</v>
       </c>
       <c r="E20" t="n">
-        <v>800.2727837449994</v>
+        <v>765.493612889725</v>
       </c>
       <c r="F20" t="n">
-        <v>375.1486019343996</v>
+        <v>340.3694310791253</v>
       </c>
       <c r="G20" t="n">
-        <v>57.69108845861494</v>
+        <v>340.3694310791253</v>
       </c>
       <c r="H20" t="n">
-        <v>57.69108845861494</v>
+        <v>57.69108845861495</v>
       </c>
       <c r="I20" t="n">
-        <v>79.53261889552353</v>
+        <v>79.53261889552354</v>
       </c>
       <c r="J20" t="n">
-        <v>173.7882360108206</v>
+        <v>565.5174547184467</v>
       </c>
       <c r="K20" t="n">
-        <v>323.2979820334617</v>
+        <v>715.0272007410879</v>
       </c>
       <c r="L20" t="n">
-        <v>700.0872440668795</v>
+        <v>906.5037975401813</v>
       </c>
       <c r="M20" t="n">
-        <v>918.2881351809651</v>
+        <v>1124.704688654267</v>
       </c>
       <c r="N20" t="n">
-        <v>1140.769488696845</v>
+        <v>1347.186042170147</v>
       </c>
       <c r="O20" t="n">
-        <v>1348.685342040752</v>
+        <v>1555.101895514054</v>
       </c>
       <c r="P20" t="n">
-        <v>2062.612561716112</v>
+        <v>2062.612561716113</v>
       </c>
       <c r="Q20" t="n">
         <v>2675.681804470531</v>
@@ -5779,25 +5779,25 @@
         <v>2884.554422930747</v>
       </c>
       <c r="S20" t="n">
-        <v>2884.554422930747</v>
+        <v>2813.986024758537</v>
       </c>
       <c r="T20" t="n">
-        <v>2884.554422930747</v>
+        <v>2813.986024758537</v>
       </c>
       <c r="U20" t="n">
-        <v>2884.554422930747</v>
+        <v>2783.181281747367</v>
       </c>
       <c r="V20" t="n">
-        <v>2884.554422930747</v>
+        <v>2425.691866873617</v>
       </c>
       <c r="W20" t="n">
-        <v>2488.163073231094</v>
+        <v>2425.691866873617</v>
       </c>
       <c r="X20" t="n">
-        <v>2076.443074398841</v>
+        <v>2013.971868041364</v>
       </c>
       <c r="Y20" t="n">
-        <v>2076.443074398841</v>
+        <v>1608.634597996255</v>
       </c>
     </row>
     <row r="21">
@@ -5825,34 +5825,34 @@
         <v>103.40274270939</v>
       </c>
       <c r="H21" t="n">
-        <v>57.69108845861494</v>
+        <v>57.69108845861495</v>
       </c>
       <c r="I21" t="n">
-        <v>91.91727079879398</v>
+        <v>68.45996495438214</v>
       </c>
       <c r="J21" t="n">
-        <v>437.0998629761244</v>
+        <v>357.162563079711</v>
       </c>
       <c r="K21" t="n">
-        <v>841.7946114558916</v>
+        <v>460.5850669719293</v>
       </c>
       <c r="L21" t="n">
-        <v>988.386344006399</v>
+        <v>607.1767995224367</v>
       </c>
       <c r="M21" t="n">
-        <v>1162.597472685499</v>
+        <v>781.3879282015372</v>
       </c>
       <c r="N21" t="n">
-        <v>1343.760856358153</v>
+        <v>962.5513118741904</v>
       </c>
       <c r="O21" t="n">
-        <v>1505.879242558995</v>
+        <v>1124.669698075033</v>
       </c>
       <c r="P21" t="n">
-        <v>1632.851916830036</v>
+        <v>1251.642372346073</v>
       </c>
       <c r="Q21" t="n">
-        <v>1709.617917594659</v>
+        <v>1815.073417879565</v>
       </c>
       <c r="R21" t="n">
         <v>1839.929095123789</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>989.7328483303413</v>
+        <v>972.6095237587783</v>
       </c>
       <c r="C22" t="n">
-        <v>817.7602852092573</v>
+        <v>800.6369606376943</v>
       </c>
       <c r="D22" t="n">
-        <v>654.443512336028</v>
+        <v>637.320187764465</v>
       </c>
       <c r="E22" t="n">
-        <v>612.7859895403822</v>
+        <v>471.1119819173185</v>
       </c>
       <c r="F22" t="n">
-        <v>440.9242153149426</v>
+        <v>299.2502076918789</v>
       </c>
       <c r="G22" t="n">
-        <v>275.3325674372254</v>
+        <v>133.6585598141618</v>
       </c>
       <c r="H22" t="n">
-        <v>137.4516148347764</v>
+        <v>57.69108845861495</v>
       </c>
       <c r="I22" t="n">
-        <v>57.69108845861494</v>
+        <v>57.69108845861495</v>
       </c>
       <c r="J22" t="n">
         <v>161.2846086864215</v>
@@ -5934,28 +5934,28 @@
         <v>2884.554422930747</v>
       </c>
       <c r="R22" t="n">
-        <v>2884.554422930747</v>
+        <v>2867.431098359184</v>
       </c>
       <c r="S22" t="n">
-        <v>2726.01412039873</v>
+        <v>2708.890795827167</v>
       </c>
       <c r="T22" t="n">
-        <v>2485.517511344483</v>
+        <v>2468.39418677292</v>
       </c>
       <c r="U22" t="n">
-        <v>2205.369353126318</v>
+        <v>2188.246028554755</v>
       </c>
       <c r="V22" t="n">
-        <v>1923.657885734347</v>
+        <v>1906.534561162784</v>
       </c>
       <c r="W22" t="n">
-        <v>1648.80548190686</v>
+        <v>1631.682157335297</v>
       </c>
       <c r="X22" t="n">
-        <v>1406.241585352665</v>
+        <v>1389.118260781102</v>
       </c>
       <c r="Y22" t="n">
-        <v>1179.898817042407</v>
+        <v>1162.775492470844</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2487.254217339053</v>
+        <v>2487.254217339054</v>
       </c>
       <c r="C23" t="n">
         <v>2060.353487352354</v>
@@ -5977,7 +5977,7 @@
         <v>1211.083926685212</v>
       </c>
       <c r="F23" t="n">
-        <v>785.9597448746118</v>
+        <v>785.9597448746119</v>
       </c>
       <c r="G23" t="n">
         <v>383.1039033507153</v>
@@ -5989,28 +5989,28 @@
         <v>122.2670911671136</v>
       </c>
       <c r="J23" t="n">
-        <v>216.5227082824107</v>
+        <v>608.2519269900368</v>
       </c>
       <c r="K23" t="n">
-        <v>1116.947717067412</v>
+        <v>1508.676935775038</v>
       </c>
       <c r="L23" t="n">
-        <v>2275.978283494079</v>
+        <v>1751.25253217224</v>
       </c>
       <c r="M23" t="n">
-        <v>3518.744597530365</v>
+        <v>1969.453423286325</v>
       </c>
       <c r="N23" t="n">
-        <v>4463.662929706024</v>
+        <v>2191.934776802205</v>
       </c>
       <c r="O23" t="n">
-        <v>4671.578783049931</v>
+        <v>3282.012330059389</v>
       </c>
       <c r="P23" t="n">
-        <v>4843.423740936101</v>
+        <v>4199.336175295615</v>
       </c>
       <c r="Q23" t="n">
-        <v>4964.644076327785</v>
+        <v>4812.405418050033</v>
       </c>
       <c r="R23" t="n">
         <v>5021.27803651025</v>
@@ -6022,7 +6022,7 @@
         <v>4736.276866814004</v>
       </c>
       <c r="U23" t="n">
-        <v>4478.040615081351</v>
+        <v>4478.04061508135</v>
       </c>
       <c r="V23" t="n">
         <v>4120.551200207599</v>
@@ -6031,7 +6031,7 @@
         <v>3724.159850507946</v>
       </c>
       <c r="X23" t="n">
-        <v>3312.439851675693</v>
+        <v>3312.439851675694</v>
       </c>
       <c r="Y23" t="n">
         <v>2907.102581630584</v>
@@ -6065,31 +6065,31 @@
         <v>100.425560730205</v>
       </c>
       <c r="I24" t="n">
-        <v>111.1944372259722</v>
+        <v>134.651743070384</v>
       </c>
       <c r="J24" t="n">
-        <v>164.2745369337115</v>
+        <v>294.4415350663952</v>
       </c>
       <c r="K24" t="n">
-        <v>267.6970408259298</v>
+        <v>397.8640389586135</v>
       </c>
       <c r="L24" t="n">
-        <v>414.2887733764372</v>
+        <v>544.4557715091208</v>
       </c>
       <c r="M24" t="n">
-        <v>588.4999020555376</v>
+        <v>718.6669001882213</v>
       </c>
       <c r="N24" t="n">
-        <v>769.6632857281909</v>
+        <v>899.8302838608746</v>
       </c>
       <c r="O24" t="n">
-        <v>1654.069215115491</v>
+        <v>1061.948670061717</v>
       </c>
       <c r="P24" t="n">
-        <v>1781.041889386531</v>
+        <v>1188.921344332758</v>
       </c>
       <c r="Q24" t="n">
-        <v>1857.807890151155</v>
+        <v>1752.352389866249</v>
       </c>
       <c r="R24" t="n">
         <v>1882.663567395379</v>
@@ -6135,13 +6135,13 @@
         <v>530.9697787604713</v>
       </c>
       <c r="F25" t="n">
-        <v>359.1080045350317</v>
+        <v>483.6586875865326</v>
       </c>
       <c r="G25" t="n">
-        <v>193.5163566573146</v>
+        <v>318.0670397088155</v>
       </c>
       <c r="H25" t="n">
-        <v>100.425560730205</v>
+        <v>180.1860871063665</v>
       </c>
       <c r="I25" t="n">
         <v>100.425560730205</v>
@@ -6205,16 +6205,16 @@
         <v>2487.254217339053</v>
       </c>
       <c r="C26" t="n">
-        <v>2060.353487352354</v>
+        <v>2060.353487352353</v>
       </c>
       <c r="D26" t="n">
-        <v>1637.060866537354</v>
+        <v>1637.060866537353</v>
       </c>
       <c r="E26" t="n">
         <v>1211.083926685211</v>
       </c>
       <c r="F26" t="n">
-        <v>785.9597448746115</v>
+        <v>785.959744874611</v>
       </c>
       <c r="G26" t="n">
         <v>383.1039033507153</v>
@@ -6232,25 +6232,25 @@
         <v>1508.676935775038</v>
       </c>
       <c r="L26" t="n">
-        <v>2667.707502201705</v>
+        <v>1700.153532574132</v>
       </c>
       <c r="M26" t="n">
-        <v>2885.908393315791</v>
+        <v>1918.354423688217</v>
       </c>
       <c r="N26" t="n">
-        <v>3108.389746831671</v>
+        <v>2191.934776802203</v>
       </c>
       <c r="O26" t="n">
-        <v>4179.729875687196</v>
+        <v>3282.012330059387</v>
       </c>
       <c r="P26" t="n">
-        <v>4351.574833573366</v>
+        <v>4199.336175295613</v>
       </c>
       <c r="Q26" t="n">
-        <v>4964.644076327785</v>
+        <v>4812.405418050032</v>
       </c>
       <c r="R26" t="n">
-        <v>5021.27803651025</v>
+        <v>5021.278036510249</v>
       </c>
       <c r="S26" t="n">
         <v>4950.709638338039</v>
@@ -6271,7 +6271,7 @@
         <v>3312.439851675693</v>
       </c>
       <c r="Y26" t="n">
-        <v>2907.102581630584</v>
+        <v>2907.102581630583</v>
       </c>
     </row>
     <row r="27">
@@ -6296,37 +6296,37 @@
         <v>239.3973936257663</v>
       </c>
       <c r="G27" t="n">
-        <v>146.1372149809801</v>
+        <v>146.13721498098</v>
       </c>
       <c r="H27" t="n">
         <v>100.425560730205</v>
       </c>
       <c r="I27" t="n">
-        <v>111.1944372259722</v>
+        <v>134.651743070384</v>
       </c>
       <c r="J27" t="n">
-        <v>164.2745369337115</v>
+        <v>479.8343352477144</v>
       </c>
       <c r="K27" t="n">
-        <v>267.6970408259298</v>
+        <v>583.2568391399327</v>
       </c>
       <c r="L27" t="n">
-        <v>1136.576316562895</v>
+        <v>729.8485716904401</v>
       </c>
       <c r="M27" t="n">
-        <v>1310.787445241995</v>
+        <v>904.0597003695406</v>
       </c>
       <c r="N27" t="n">
-        <v>1491.950828914649</v>
+        <v>1085.223084042194</v>
       </c>
       <c r="O27" t="n">
-        <v>1654.069215115491</v>
+        <v>1247.341470243036</v>
       </c>
       <c r="P27" t="n">
-        <v>1781.041889386531</v>
+        <v>1374.314144514077</v>
       </c>
       <c r="Q27" t="n">
-        <v>1857.807890151155</v>
+        <v>1752.352389866249</v>
       </c>
       <c r="R27" t="n">
         <v>1882.663567395379</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1077.25747727727</v>
+        <v>1032.467320601931</v>
       </c>
       <c r="C28" t="n">
-        <v>905.2849141561865</v>
+        <v>860.4947574808471</v>
       </c>
       <c r="D28" t="n">
-        <v>741.9681412829572</v>
+        <v>697.1779846076178</v>
       </c>
       <c r="E28" t="n">
-        <v>575.7599354358107</v>
+        <v>530.9697787604713</v>
       </c>
       <c r="F28" t="n">
-        <v>403.8981612103711</v>
+        <v>359.1080045350317</v>
       </c>
       <c r="G28" t="n">
-        <v>238.306513332654</v>
+        <v>193.5163566573146</v>
       </c>
       <c r="H28" t="n">
         <v>100.425560730205</v>
@@ -6384,10 +6384,10 @@
         <v>100.425560730205</v>
       </c>
       <c r="J28" t="n">
-        <v>204.0190809580116</v>
+        <v>204.0190809580115</v>
       </c>
       <c r="K28" t="n">
-        <v>506.306745659622</v>
+        <v>506.3067456596219</v>
       </c>
       <c r="L28" t="n">
         <v>957.9428649516856</v>
@@ -6429,7 +6429,7 @@
         <v>1448.976057624255</v>
       </c>
       <c r="Y28" t="n">
-        <v>1267.423445989336</v>
+        <v>1222.633289313997</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2487.254217339054</v>
+        <v>2487.254217339053</v>
       </c>
       <c r="C29" t="n">
-        <v>2060.353487352354</v>
+        <v>2060.353487352353</v>
       </c>
       <c r="D29" t="n">
-        <v>1637.060866537354</v>
+        <v>1637.060866537353</v>
       </c>
       <c r="E29" t="n">
-        <v>1211.083926685212</v>
+        <v>1211.083926685211</v>
       </c>
       <c r="F29" t="n">
-        <v>785.9597448746119</v>
+        <v>785.959744874611</v>
       </c>
       <c r="G29" t="n">
-        <v>383.1039033507154</v>
+        <v>383.1039033507146</v>
       </c>
       <c r="H29" t="n">
         <v>100.425560730205</v>
@@ -6463,52 +6463,52 @@
         <v>122.2670911671136</v>
       </c>
       <c r="J29" t="n">
-        <v>216.5227082824107</v>
+        <v>608.2519269900368</v>
       </c>
       <c r="K29" t="n">
-        <v>366.0324543050518</v>
+        <v>1508.676935775038</v>
       </c>
       <c r="L29" t="n">
-        <v>1525.063020731719</v>
+        <v>1700.153532574132</v>
       </c>
       <c r="M29" t="n">
-        <v>1743.263911845804</v>
+        <v>1918.354423688217</v>
       </c>
       <c r="N29" t="n">
-        <v>2978.903150454486</v>
+        <v>2191.934776802205</v>
       </c>
       <c r="O29" t="n">
-        <v>4068.980703711669</v>
+        <v>3282.012330059389</v>
       </c>
       <c r="P29" t="n">
-        <v>4843.423740936102</v>
+        <v>4199.336175295615</v>
       </c>
       <c r="Q29" t="n">
-        <v>4964.644076327786</v>
+        <v>4812.405418050033</v>
       </c>
       <c r="R29" t="n">
-        <v>5021.278036510251</v>
+        <v>5021.27803651025</v>
       </c>
       <c r="S29" t="n">
-        <v>4950.709638338041</v>
+        <v>4950.709638338039</v>
       </c>
       <c r="T29" t="n">
-        <v>4736.276866814006</v>
+        <v>4736.276866814004</v>
       </c>
       <c r="U29" t="n">
-        <v>4478.040615081351</v>
+        <v>4478.040615081349</v>
       </c>
       <c r="V29" t="n">
-        <v>4120.5512002076</v>
+        <v>4120.551200207598</v>
       </c>
       <c r="W29" t="n">
-        <v>3724.159850507947</v>
+        <v>3724.159850507946</v>
       </c>
       <c r="X29" t="n">
-        <v>3312.439851675694</v>
+        <v>3312.439851675693</v>
       </c>
       <c r="Y29" t="n">
-        <v>2907.102581630584</v>
+        <v>2907.102581630583</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>100.425560730205</v>
       </c>
       <c r="I30" t="n">
-        <v>111.1944372259722</v>
+        <v>134.651743070384</v>
       </c>
       <c r="J30" t="n">
-        <v>164.2745369337116</v>
+        <v>479.8343352477145</v>
       </c>
       <c r="K30" t="n">
-        <v>267.6970408259298</v>
+        <v>583.2568391399327</v>
       </c>
       <c r="L30" t="n">
-        <v>414.2887733764372</v>
+        <v>729.8485716904401</v>
       </c>
       <c r="M30" t="n">
-        <v>588.4999020555376</v>
+        <v>904.0597003695406</v>
       </c>
       <c r="N30" t="n">
-        <v>1491.950828914649</v>
+        <v>1085.223084042194</v>
       </c>
       <c r="O30" t="n">
-        <v>1654.069215115491</v>
+        <v>1247.341470243036</v>
       </c>
       <c r="P30" t="n">
-        <v>1781.041889386531</v>
+        <v>1374.314144514077</v>
       </c>
       <c r="Q30" t="n">
-        <v>1857.807890151155</v>
+        <v>1752.352389866249</v>
       </c>
       <c r="R30" t="n">
         <v>1882.663567395379</v>
@@ -6600,22 +6600,22 @@
         <v>1032.467320601931</v>
       </c>
       <c r="C31" t="n">
-        <v>860.4947574808471</v>
+        <v>905.2849141561865</v>
       </c>
       <c r="D31" t="n">
-        <v>821.7286676591187</v>
+        <v>741.9681412829572</v>
       </c>
       <c r="E31" t="n">
-        <v>655.5204618119723</v>
+        <v>575.7599354358107</v>
       </c>
       <c r="F31" t="n">
-        <v>483.6586875865327</v>
+        <v>403.8981612103711</v>
       </c>
       <c r="G31" t="n">
-        <v>318.0670397088155</v>
+        <v>238.306513332654</v>
       </c>
       <c r="H31" t="n">
-        <v>180.1860871063665</v>
+        <v>100.425560730205</v>
       </c>
       <c r="I31" t="n">
         <v>100.425560730205</v>
@@ -6688,7 +6688,7 @@
         <v>1211.083926685212</v>
       </c>
       <c r="F32" t="n">
-        <v>785.9597448746118</v>
+        <v>785.9597448746117</v>
       </c>
       <c r="G32" t="n">
         <v>383.1039033507153</v>
@@ -6706,34 +6706,34 @@
         <v>1508.676935775038</v>
       </c>
       <c r="L32" t="n">
-        <v>1700.153532574132</v>
+        <v>2633.414232085516</v>
       </c>
       <c r="M32" t="n">
-        <v>2942.919846610419</v>
+        <v>2851.615123199601</v>
       </c>
       <c r="N32" t="n">
-        <v>4178.559085219101</v>
+        <v>3074.096476715481</v>
       </c>
       <c r="O32" t="n">
-        <v>4386.474938563008</v>
+        <v>3282.012330059389</v>
       </c>
       <c r="P32" t="n">
-        <v>4558.319896449178</v>
+        <v>4199.336175295615</v>
       </c>
       <c r="Q32" t="n">
-        <v>4812.405418050034</v>
+        <v>4812.405418050033</v>
       </c>
       <c r="R32" t="n">
-        <v>5021.278036510251</v>
+        <v>5021.27803651025</v>
       </c>
       <c r="S32" t="n">
-        <v>4950.709638338041</v>
+        <v>4950.709638338039</v>
       </c>
       <c r="T32" t="n">
-        <v>4736.276866814006</v>
+        <v>4736.276866814004</v>
       </c>
       <c r="U32" t="n">
-        <v>4478.040615081351</v>
+        <v>4478.04061508135</v>
       </c>
       <c r="V32" t="n">
         <v>4120.551200207599</v>
@@ -6776,31 +6776,31 @@
         <v>100.425560730205</v>
       </c>
       <c r="I33" t="n">
-        <v>111.1944372259722</v>
+        <v>134.651743070384</v>
       </c>
       <c r="J33" t="n">
-        <v>164.2745369337116</v>
+        <v>479.8343352477145</v>
       </c>
       <c r="K33" t="n">
-        <v>267.6970408259298</v>
+        <v>583.2568391399327</v>
       </c>
       <c r="L33" t="n">
-        <v>414.2887733764372</v>
+        <v>729.8485716904401</v>
       </c>
       <c r="M33" t="n">
-        <v>588.4999020555376</v>
+        <v>904.0597003695406</v>
       </c>
       <c r="N33" t="n">
-        <v>769.6632857281909</v>
+        <v>1085.223084042194</v>
       </c>
       <c r="O33" t="n">
-        <v>931.781671929033</v>
+        <v>1247.341470243036</v>
       </c>
       <c r="P33" t="n">
-        <v>1781.041889386531</v>
+        <v>1374.314144514077</v>
       </c>
       <c r="Q33" t="n">
-        <v>1857.807890151155</v>
+        <v>1752.352389866249</v>
       </c>
       <c r="R33" t="n">
         <v>1882.663567395379</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1032.467320601931</v>
+        <v>1077.25747727727</v>
       </c>
       <c r="C34" t="n">
-        <v>860.4947574808471</v>
+        <v>905.2849141561865</v>
       </c>
       <c r="D34" t="n">
-        <v>697.1779846076178</v>
+        <v>741.9681412829572</v>
       </c>
       <c r="E34" t="n">
-        <v>530.9697787604713</v>
+        <v>575.7599354358107</v>
       </c>
       <c r="F34" t="n">
-        <v>359.1080045350317</v>
+        <v>403.8981612103711</v>
       </c>
       <c r="G34" t="n">
-        <v>193.5163566573146</v>
+        <v>238.306513332654</v>
       </c>
       <c r="H34" t="n">
         <v>100.425560730205</v>
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2444.519745067464</v>
+        <v>1168.349454413622</v>
       </c>
       <c r="C35" t="n">
-        <v>2017.619015080764</v>
+        <v>1168.349454413622</v>
       </c>
       <c r="D35" t="n">
-        <v>1594.326394265764</v>
+        <v>1168.349454413622</v>
       </c>
       <c r="E35" t="n">
         <v>1168.349454413622</v>
@@ -6931,58 +6931,58 @@
         <v>340.3694310791253</v>
       </c>
       <c r="H35" t="n">
-        <v>57.69108845861496</v>
+        <v>57.69108845861495</v>
       </c>
       <c r="I35" t="n">
         <v>79.53261889552354</v>
       </c>
       <c r="J35" t="n">
-        <v>332.8882681830777</v>
+        <v>565.5174547184467</v>
       </c>
       <c r="K35" t="n">
-        <v>1046.815487858438</v>
+        <v>715.0272007410879</v>
       </c>
       <c r="L35" t="n">
-        <v>1238.292084657531</v>
+        <v>906.5037975401813</v>
       </c>
       <c r="M35" t="n">
-        <v>1952.219304332891</v>
+        <v>1124.704688654267</v>
       </c>
       <c r="N35" t="n">
-        <v>2174.700657848771</v>
+        <v>1347.186042170147</v>
       </c>
       <c r="O35" t="n">
-        <v>2382.616511192678</v>
+        <v>1555.101895514054</v>
       </c>
       <c r="P35" t="n">
-        <v>2554.461469078848</v>
+        <v>2062.612561716113</v>
       </c>
       <c r="Q35" t="n">
-        <v>2675.681804470532</v>
+        <v>2675.681804470531</v>
       </c>
       <c r="R35" t="n">
-        <v>2884.554422930748</v>
+        <v>2884.554422930747</v>
       </c>
       <c r="S35" t="n">
-        <v>2884.554422930748</v>
+        <v>2813.986024758537</v>
       </c>
       <c r="T35" t="n">
-        <v>2670.121651406713</v>
+        <v>2599.553253234503</v>
       </c>
       <c r="U35" t="n">
-        <v>2670.121651406713</v>
+        <v>2341.317001501848</v>
       </c>
       <c r="V35" t="n">
-        <v>2670.121651406713</v>
+        <v>1983.827586628097</v>
       </c>
       <c r="W35" t="n">
-        <v>2670.121651406713</v>
+        <v>1587.436236928444</v>
       </c>
       <c r="X35" t="n">
-        <v>2670.121651406713</v>
+        <v>1175.716238096191</v>
       </c>
       <c r="Y35" t="n">
-        <v>2670.121651406713</v>
+        <v>1168.349454413622</v>
       </c>
     </row>
     <row r="36">
@@ -7010,34 +7010,34 @@
         <v>103.40274270939</v>
       </c>
       <c r="H36" t="n">
-        <v>57.69108845861496</v>
+        <v>57.69108845861495</v>
       </c>
       <c r="I36" t="n">
-        <v>68.45996495438216</v>
+        <v>91.91727079879399</v>
       </c>
       <c r="J36" t="n">
-        <v>413.6425571317126</v>
+        <v>437.0998629761244</v>
       </c>
       <c r="K36" t="n">
-        <v>517.0650610239309</v>
+        <v>841.7946114558914</v>
       </c>
       <c r="L36" t="n">
-        <v>663.6567935744382</v>
+        <v>988.3863440063988</v>
       </c>
       <c r="M36" t="n">
-        <v>837.8679222535387</v>
+        <v>1162.597472685499</v>
       </c>
       <c r="N36" t="n">
-        <v>1019.031305926192</v>
+        <v>1343.760856358153</v>
       </c>
       <c r="O36" t="n">
-        <v>1181.149692127034</v>
+        <v>1505.879242558995</v>
       </c>
       <c r="P36" t="n">
-        <v>1308.122366398075</v>
+        <v>1632.851916830036</v>
       </c>
       <c r="Q36" t="n">
-        <v>1815.073417879565</v>
+        <v>1709.617917594659</v>
       </c>
       <c r="R36" t="n">
         <v>1839.929095123789</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>972.6095237587792</v>
+        <v>989.7328483303413</v>
       </c>
       <c r="C37" t="n">
-        <v>800.6369606376952</v>
+        <v>817.7602852092573</v>
       </c>
       <c r="D37" t="n">
-        <v>778.9941953875286</v>
+        <v>654.443512336028</v>
       </c>
       <c r="E37" t="n">
-        <v>612.7859895403822</v>
+        <v>488.2353064888815</v>
       </c>
       <c r="F37" t="n">
-        <v>440.9242153149426</v>
+        <v>316.3735322634419</v>
       </c>
       <c r="G37" t="n">
-        <v>275.3325674372254</v>
+        <v>150.7818843857248</v>
       </c>
       <c r="H37" t="n">
-        <v>137.4516148347764</v>
+        <v>57.69108845861495</v>
       </c>
       <c r="I37" t="n">
-        <v>57.69108845861496</v>
+        <v>57.69108845861495</v>
       </c>
       <c r="J37" t="n">
-        <v>161.2846086864215</v>
+        <v>161.284608686422</v>
       </c>
       <c r="K37" t="n">
-        <v>463.5722733880328</v>
+        <v>463.572273388032</v>
       </c>
       <c r="L37" t="n">
-        <v>915.2083926800964</v>
+        <v>915.2083926800956</v>
       </c>
       <c r="M37" t="n">
-        <v>1408.610993194762</v>
+        <v>1408.610993194761</v>
       </c>
       <c r="N37" t="n">
-        <v>1885.88882244516</v>
+        <v>1885.888822445159</v>
       </c>
       <c r="O37" t="n">
         <v>2333.485767027292</v>
       </c>
       <c r="P37" t="n">
-        <v>2702.951323608643</v>
+        <v>2702.951323608642</v>
       </c>
       <c r="Q37" t="n">
-        <v>2884.554422930748</v>
+        <v>2884.554422930747</v>
       </c>
       <c r="R37" t="n">
-        <v>2867.431098359185</v>
+        <v>2884.554422930747</v>
       </c>
       <c r="S37" t="n">
-        <v>2708.890795827168</v>
+        <v>2726.01412039873</v>
       </c>
       <c r="T37" t="n">
-        <v>2468.394186772921</v>
+        <v>2485.517511344484</v>
       </c>
       <c r="U37" t="n">
-        <v>2188.246028554756</v>
+        <v>2205.369353126318</v>
       </c>
       <c r="V37" t="n">
-        <v>1906.534561162785</v>
+        <v>1923.657885734347</v>
       </c>
       <c r="W37" t="n">
-        <v>1631.682157335298</v>
+        <v>1648.80548190686</v>
       </c>
       <c r="X37" t="n">
-        <v>1389.118260781103</v>
+        <v>1406.241585352665</v>
       </c>
       <c r="Y37" t="n">
-        <v>1162.775492470845</v>
+        <v>1179.898817042407</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1592.494833270164</v>
+        <v>1166.770317750735</v>
       </c>
       <c r="C38" t="n">
-        <v>1592.494833270164</v>
+        <v>1166.770317750735</v>
       </c>
       <c r="D38" t="n">
-        <v>1169.202212455164</v>
+        <v>1166.770317750735</v>
       </c>
       <c r="E38" t="n">
-        <v>743.2252726030217</v>
+        <v>1166.770317750735</v>
       </c>
       <c r="F38" t="n">
-        <v>743.2252726030217</v>
+        <v>741.6461359401349</v>
       </c>
       <c r="G38" t="n">
         <v>340.3694310791253</v>
@@ -7171,25 +7171,25 @@
         <v>57.69108845861496</v>
       </c>
       <c r="I38" t="n">
-        <v>79.53261889552354</v>
+        <v>79.53261889552356</v>
       </c>
       <c r="J38" t="n">
-        <v>565.5174547184467</v>
+        <v>173.7882360108206</v>
       </c>
       <c r="K38" t="n">
-        <v>1050.692909056977</v>
+        <v>508.6106472677869</v>
       </c>
       <c r="L38" t="n">
-        <v>1242.16950585607</v>
+        <v>700.0872440668803</v>
       </c>
       <c r="M38" t="n">
-        <v>1460.370396970156</v>
+        <v>918.2881351809659</v>
       </c>
       <c r="N38" t="n">
-        <v>1682.851750486036</v>
+        <v>1140.769488696846</v>
       </c>
       <c r="O38" t="n">
-        <v>1890.767603829943</v>
+        <v>1348.685342040753</v>
       </c>
       <c r="P38" t="n">
         <v>2062.612561716113</v>
@@ -7201,25 +7201,25 @@
         <v>2884.554422930748</v>
       </c>
       <c r="S38" t="n">
-        <v>2884.554422930748</v>
+        <v>2813.986024758537</v>
       </c>
       <c r="T38" t="n">
-        <v>2670.121651406713</v>
+        <v>2599.553253234503</v>
       </c>
       <c r="U38" t="n">
-        <v>2670.121651406713</v>
+        <v>2341.317001501848</v>
       </c>
       <c r="V38" t="n">
-        <v>2312.632236532962</v>
+        <v>1983.827586628097</v>
       </c>
       <c r="W38" t="n">
-        <v>2312.632236532962</v>
+        <v>1983.827586628097</v>
       </c>
       <c r="X38" t="n">
-        <v>2312.632236532962</v>
+        <v>1572.107587795844</v>
       </c>
       <c r="Y38" t="n">
-        <v>2012.343197561694</v>
+        <v>1166.770317750735</v>
       </c>
     </row>
     <row r="39">
@@ -7268,13 +7268,13 @@
         <v>1042.488611770604</v>
       </c>
       <c r="O39" t="n">
-        <v>1611.334742843901</v>
+        <v>1204.606997971446</v>
       </c>
       <c r="P39" t="n">
-        <v>1738.307417114941</v>
+        <v>1331.579672242487</v>
       </c>
       <c r="Q39" t="n">
-        <v>1815.073417879565</v>
+        <v>1709.617917594659</v>
       </c>
       <c r="R39" t="n">
         <v>1839.929095123789</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1114.283531381842</v>
+        <v>989.7328483303422</v>
       </c>
       <c r="C40" t="n">
-        <v>942.3109682607579</v>
+        <v>817.7602852092582</v>
       </c>
       <c r="D40" t="n">
-        <v>778.9941953875286</v>
+        <v>654.4435123360289</v>
       </c>
       <c r="E40" t="n">
-        <v>612.7859895403822</v>
+        <v>488.2353064888824</v>
       </c>
       <c r="F40" t="n">
-        <v>440.9242153149426</v>
+        <v>316.3735322634428</v>
       </c>
       <c r="G40" t="n">
-        <v>275.3325674372254</v>
+        <v>150.7818843857257</v>
       </c>
       <c r="H40" t="n">
         <v>137.4516148347764</v>
@@ -7341,10 +7341,10 @@
         <v>915.2083926800956</v>
       </c>
       <c r="M40" t="n">
-        <v>1408.610993194762</v>
+        <v>1408.610993194761</v>
       </c>
       <c r="N40" t="n">
-        <v>1885.88882244516</v>
+        <v>1885.888822445159</v>
       </c>
       <c r="O40" t="n">
         <v>2333.485767027292</v>
@@ -7356,28 +7356,28 @@
         <v>2884.554422930748</v>
       </c>
       <c r="R40" t="n">
-        <v>2867.431098359185</v>
+        <v>2884.554422930748</v>
       </c>
       <c r="S40" t="n">
-        <v>2708.890795827168</v>
+        <v>2726.014120398731</v>
       </c>
       <c r="T40" t="n">
-        <v>2468.394186772921</v>
+        <v>2485.517511344484</v>
       </c>
       <c r="U40" t="n">
-        <v>2188.246028554756</v>
+        <v>2205.369353126319</v>
       </c>
       <c r="V40" t="n">
-        <v>1906.534561162785</v>
+        <v>1923.657885734348</v>
       </c>
       <c r="W40" t="n">
-        <v>1631.682157335298</v>
+        <v>1648.805481906861</v>
       </c>
       <c r="X40" t="n">
-        <v>1389.118260781103</v>
+        <v>1406.241585352666</v>
       </c>
       <c r="Y40" t="n">
-        <v>1162.775492470845</v>
+        <v>1179.898817042408</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>778.5884168055125</v>
+        <v>755.8678738046613</v>
       </c>
       <c r="C41" t="n">
-        <v>351.6876868188126</v>
+        <v>755.8678738046613</v>
       </c>
       <c r="D41" t="n">
-        <v>57.69108845861496</v>
+        <v>755.8678738046613</v>
       </c>
       <c r="E41" t="n">
-        <v>57.69108845861496</v>
+        <v>755.8678738046613</v>
       </c>
       <c r="F41" t="n">
-        <v>57.69108845861496</v>
+        <v>743.2252726030217</v>
       </c>
       <c r="G41" t="n">
-        <v>57.69108845861496</v>
+        <v>340.3694310791253</v>
       </c>
       <c r="H41" t="n">
         <v>57.69108845861496</v>
       </c>
       <c r="I41" t="n">
-        <v>79.53261889552354</v>
+        <v>79.53261889552356</v>
       </c>
       <c r="J41" t="n">
-        <v>378.7325401580689</v>
+        <v>173.7882360108206</v>
       </c>
       <c r="K41" t="n">
-        <v>528.24228618071</v>
+        <v>323.2979820334617</v>
       </c>
       <c r="L41" t="n">
-        <v>1242.16950585607</v>
+        <v>514.7745788325551</v>
       </c>
       <c r="M41" t="n">
-        <v>1460.370396970156</v>
+        <v>1228.701798507915</v>
       </c>
       <c r="N41" t="n">
-        <v>1682.851750486036</v>
+        <v>1451.183152023795</v>
       </c>
       <c r="O41" t="n">
-        <v>1890.767603829943</v>
+        <v>1659.099005367702</v>
       </c>
       <c r="P41" t="n">
         <v>2062.612561716113</v>
@@ -7438,25 +7438,25 @@
         <v>2884.554422930748</v>
       </c>
       <c r="S41" t="n">
-        <v>2884.554422930748</v>
+        <v>2813.986024758537</v>
       </c>
       <c r="T41" t="n">
-        <v>2670.121651406713</v>
+        <v>2599.553253234503</v>
       </c>
       <c r="U41" t="n">
-        <v>2411.885399674058</v>
+        <v>2341.317001501848</v>
       </c>
       <c r="V41" t="n">
-        <v>2411.885399674058</v>
+        <v>1983.827586628097</v>
       </c>
       <c r="W41" t="n">
-        <v>2015.494049974405</v>
+        <v>1587.436236928444</v>
       </c>
       <c r="X41" t="n">
-        <v>1603.774051142152</v>
+        <v>1175.716238096191</v>
       </c>
       <c r="Y41" t="n">
-        <v>1198.436781097043</v>
+        <v>1175.716238096191</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>57.69108845861496</v>
       </c>
       <c r="I42" t="n">
-        <v>68.45996495438216</v>
+        <v>91.91727079879399</v>
       </c>
       <c r="J42" t="n">
-        <v>357.1625630797112</v>
+        <v>437.0998629761244</v>
       </c>
       <c r="K42" t="n">
-        <v>460.5850669719295</v>
+        <v>540.5223668683427</v>
       </c>
       <c r="L42" t="n">
-        <v>607.1767995224368</v>
+        <v>687.1140994188501</v>
       </c>
       <c r="M42" t="n">
-        <v>781.3879282015373</v>
+        <v>861.3252280979506</v>
       </c>
       <c r="N42" t="n">
-        <v>962.5513118741904</v>
+        <v>1042.488611770604</v>
       </c>
       <c r="O42" t="n">
-        <v>1124.669698075033</v>
+        <v>1204.606997971446</v>
       </c>
       <c r="P42" t="n">
-        <v>1251.642372346073</v>
+        <v>1331.579672242487</v>
       </c>
       <c r="Q42" t="n">
-        <v>1815.073417879565</v>
+        <v>1709.617917594659</v>
       </c>
       <c r="R42" t="n">
         <v>1839.929095123789</v>
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>972.6095237587792</v>
+        <v>989.7328483303422</v>
       </c>
       <c r="C43" t="n">
-        <v>800.6369606376952</v>
+        <v>817.7602852092582</v>
       </c>
       <c r="D43" t="n">
-        <v>637.3201877644659</v>
+        <v>778.9941953875286</v>
       </c>
       <c r="E43" t="n">
         <v>612.7859895403822</v>
@@ -7569,13 +7569,13 @@
         <v>57.69108845861496</v>
       </c>
       <c r="J43" t="n">
-        <v>161.284608686422</v>
+        <v>161.2846086864218</v>
       </c>
       <c r="K43" t="n">
         <v>463.5722733880323</v>
       </c>
       <c r="L43" t="n">
-        <v>915.2083926800957</v>
+        <v>915.2083926800959</v>
       </c>
       <c r="M43" t="n">
         <v>1408.610993194761</v>
@@ -7593,28 +7593,28 @@
         <v>2884.554422930748</v>
       </c>
       <c r="R43" t="n">
-        <v>2867.431098359185</v>
+        <v>2884.554422930748</v>
       </c>
       <c r="S43" t="n">
-        <v>2708.890795827168</v>
+        <v>2726.014120398731</v>
       </c>
       <c r="T43" t="n">
-        <v>2468.394186772921</v>
+        <v>2485.517511344484</v>
       </c>
       <c r="U43" t="n">
-        <v>2188.246028554756</v>
+        <v>2205.369353126319</v>
       </c>
       <c r="V43" t="n">
-        <v>1906.534561162785</v>
+        <v>1923.657885734348</v>
       </c>
       <c r="W43" t="n">
-        <v>1631.682157335298</v>
+        <v>1648.805481906861</v>
       </c>
       <c r="X43" t="n">
-        <v>1389.118260781103</v>
+        <v>1406.241585352666</v>
       </c>
       <c r="Y43" t="n">
-        <v>1162.775492470845</v>
+        <v>1179.898817042408</v>
       </c>
     </row>
     <row r="44">
@@ -7624,52 +7624,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2019.395563256864</v>
+        <v>1758.985560923057</v>
       </c>
       <c r="C44" t="n">
-        <v>1592.494833270164</v>
+        <v>1332.084830936357</v>
       </c>
       <c r="D44" t="n">
-        <v>1169.202212455164</v>
+        <v>908.7922101213571</v>
       </c>
       <c r="E44" t="n">
-        <v>743.2252726030217</v>
+        <v>482.8152702692147</v>
       </c>
       <c r="F44" t="n">
-        <v>743.2252726030217</v>
+        <v>57.69108845861496</v>
       </c>
       <c r="G44" t="n">
-        <v>340.3694310791253</v>
+        <v>57.69108845861496</v>
       </c>
       <c r="H44" t="n">
         <v>57.69108845861496</v>
       </c>
       <c r="I44" t="n">
-        <v>79.53261889552354</v>
+        <v>79.53261889552356</v>
       </c>
       <c r="J44" t="n">
-        <v>565.5174547184467</v>
+        <v>173.7882360108206</v>
       </c>
       <c r="K44" t="n">
-        <v>715.0272007410879</v>
+        <v>323.2979820334617</v>
       </c>
       <c r="L44" t="n">
-        <v>906.5037975401813</v>
+        <v>899.0848767758019</v>
       </c>
       <c r="M44" t="n">
-        <v>1124.704688654267</v>
+        <v>1613.012096451162</v>
       </c>
       <c r="N44" t="n">
-        <v>1347.186042170147</v>
+        <v>2326.939316126522</v>
       </c>
       <c r="O44" t="n">
-        <v>1555.101895514054</v>
+        <v>2534.855169470429</v>
       </c>
       <c r="P44" t="n">
-        <v>2062.612561716113</v>
+        <v>2706.700127356599</v>
       </c>
       <c r="Q44" t="n">
-        <v>2675.681804470532</v>
+        <v>2827.920462748283</v>
       </c>
       <c r="R44" t="n">
         <v>2884.554422930748</v>
@@ -7681,19 +7681,19 @@
         <v>2884.554422930748</v>
       </c>
       <c r="U44" t="n">
-        <v>2850.963926380647</v>
+        <v>2884.554422930748</v>
       </c>
       <c r="V44" t="n">
-        <v>2850.963926380647</v>
+        <v>2884.554422930748</v>
       </c>
       <c r="W44" t="n">
-        <v>2850.963926380647</v>
+        <v>2488.163073231095</v>
       </c>
       <c r="X44" t="n">
-        <v>2439.243927548394</v>
+        <v>2076.443074398842</v>
       </c>
       <c r="Y44" t="n">
-        <v>2439.243927548394</v>
+        <v>2076.443074398842</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>57.69108845861496</v>
       </c>
       <c r="I45" t="n">
-        <v>68.45996495438216</v>
+        <v>91.91727079879399</v>
       </c>
       <c r="J45" t="n">
-        <v>413.6425571317126</v>
+        <v>437.0998629761244</v>
       </c>
       <c r="K45" t="n">
-        <v>517.0650610239309</v>
+        <v>540.5223668683427</v>
       </c>
       <c r="L45" t="n">
-        <v>663.6567935744382</v>
+        <v>687.1140994188501</v>
       </c>
       <c r="M45" t="n">
-        <v>1162.597472685499</v>
+        <v>861.3252280979506</v>
       </c>
       <c r="N45" t="n">
-        <v>1343.760856358153</v>
+        <v>1042.488611770604</v>
       </c>
       <c r="O45" t="n">
-        <v>1505.879242558995</v>
+        <v>1204.606997971446</v>
       </c>
       <c r="P45" t="n">
-        <v>1632.851916830036</v>
+        <v>1331.579672242487</v>
       </c>
       <c r="Q45" t="n">
         <v>1709.617917594659</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1114.283531381842</v>
+        <v>989.7328483303413</v>
       </c>
       <c r="C46" t="n">
-        <v>942.3109682607579</v>
+        <v>817.7602852092573</v>
       </c>
       <c r="D46" t="n">
-        <v>778.9941953875286</v>
+        <v>654.443512336028</v>
       </c>
       <c r="E46" t="n">
-        <v>612.7859895403822</v>
+        <v>488.2353064888815</v>
       </c>
       <c r="F46" t="n">
-        <v>440.9242153149426</v>
+        <v>316.3735322634419</v>
       </c>
       <c r="G46" t="n">
-        <v>275.3325674372254</v>
+        <v>150.7818843857248</v>
       </c>
       <c r="H46" t="n">
-        <v>137.4516148347764</v>
+        <v>57.69108845861496</v>
       </c>
       <c r="I46" t="n">
         <v>57.69108845861496</v>
       </c>
       <c r="J46" t="n">
-        <v>161.2846086864224</v>
+        <v>161.2846086864215</v>
       </c>
       <c r="K46" t="n">
-        <v>463.5722733880328</v>
+        <v>463.5722733880319</v>
       </c>
       <c r="L46" t="n">
-        <v>915.2083926800964</v>
+        <v>915.2083926800956</v>
       </c>
       <c r="M46" t="n">
-        <v>1408.610993194762</v>
+        <v>1408.610993194761</v>
       </c>
       <c r="N46" t="n">
-        <v>1885.88882244516</v>
+        <v>1885.888822445159</v>
       </c>
       <c r="O46" t="n">
-        <v>2333.485767027292</v>
+        <v>2333.485767027291</v>
       </c>
       <c r="P46" t="n">
-        <v>2702.951323608643</v>
+        <v>2702.951323608642</v>
       </c>
       <c r="Q46" t="n">
-        <v>2884.554422930748</v>
+        <v>2884.554422930747</v>
       </c>
       <c r="R46" t="n">
-        <v>2867.431098359185</v>
+        <v>2884.554422930747</v>
       </c>
       <c r="S46" t="n">
-        <v>2708.890795827168</v>
+        <v>2726.01412039873</v>
       </c>
       <c r="T46" t="n">
-        <v>2610.068194395983</v>
+        <v>2485.517511344483</v>
       </c>
       <c r="U46" t="n">
-        <v>2329.920036177818</v>
+        <v>2205.369353126318</v>
       </c>
       <c r="V46" t="n">
-        <v>2048.208568785847</v>
+        <v>1923.657885734347</v>
       </c>
       <c r="W46" t="n">
-        <v>1773.35616495836</v>
+        <v>1648.80548190686</v>
       </c>
       <c r="X46" t="n">
-        <v>1530.792268404165</v>
+        <v>1406.241585352665</v>
       </c>
       <c r="Y46" t="n">
-        <v>1304.449500093908</v>
+        <v>1179.898817042407</v>
       </c>
     </row>
   </sheetData>
@@ -7978,16 +7978,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>57.53626961840621</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>62.74489839701005</v>
       </c>
       <c r="L2" t="n">
-        <v>65.29234003482364</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>65.54757303225151</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
         <v>37.27962283444602</v>
@@ -8057,13 +8057,13 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>48.72742446615302</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>50.51554396615302</v>
       </c>
       <c r="L3" t="n">
-        <v>50.63139684704925</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
         <v>23.09678051232798</v>
@@ -8072,16 +8072,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>42.6303257467342</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>49.88715133764835</v>
       </c>
       <c r="Q3" t="n">
         <v>50.86334842179818</v>
       </c>
       <c r="R3" t="n">
-        <v>43.13135541865613</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,25 +8136,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>47.61705358610257</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
-        <v>49.08096458553168</v>
+        <v>20.964654452712</v>
       </c>
       <c r="L4" t="n">
-        <v>50.03507002852091</v>
+        <v>21.91875989570122</v>
       </c>
       <c r="M4" t="n">
         <v>22.57543989148582</v>
       </c>
       <c r="N4" t="n">
-        <v>20.74890097560039</v>
+        <v>47.7291985778011</v>
       </c>
       <c r="O4" t="n">
-        <v>22.49918749842445</v>
+        <v>50.61549763124414</v>
       </c>
       <c r="P4" t="n">
-        <v>22.38080065798648</v>
+        <v>50.49711079080617</v>
       </c>
       <c r="Q4" t="n">
         <v>52.73587289760464</v>
@@ -8218,10 +8218,10 @@
         <v>57.53626961840621</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>63.88091092762902</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>65.29234003482364</v>
       </c>
       <c r="M5" t="n">
         <v>37.43126289943181</v>
@@ -8230,16 +8230,16 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>65.50726948884378</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>65.69167194305098</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>63.10497220679875</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>63.14896002761616</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>48.72742446615302</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
         <v>22.39923383333334</v>
@@ -8306,13 +8306,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>40.80146423805364</v>
       </c>
       <c r="O6" t="n">
-        <v>42.6303257467342</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>49.88715133764835</v>
       </c>
       <c r="Q6" t="n">
         <v>50.86334842179818</v>
@@ -8373,10 +8373,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>20.63675598390187</v>
+        <v>48.75306611672156</v>
       </c>
       <c r="K7" t="n">
-        <v>47.9449520549127</v>
+        <v>49.08096458553168</v>
       </c>
       <c r="L7" t="n">
         <v>21.91875989570122</v>
@@ -8385,10 +8385,10 @@
         <v>22.57543989148582</v>
       </c>
       <c r="N7" t="n">
-        <v>48.86521110842008</v>
+        <v>20.74890097560039</v>
       </c>
       <c r="O7" t="n">
-        <v>50.61549763124414</v>
+        <v>49.47948510062515</v>
       </c>
       <c r="P7" t="n">
         <v>50.49711079080617</v>
@@ -8452,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>56.40025708778723</v>
+        <v>57.53626961840621</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>63.88091092762902</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>65.29234003482364</v>
       </c>
       <c r="M8" t="n">
         <v>37.43126289943181</v>
@@ -8473,10 +8473,10 @@
         <v>65.69167194305098</v>
       </c>
       <c r="Q8" t="n">
-        <v>64.24098473741773</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
-        <v>63.14896002761616</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8534,13 +8534,13 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>50.51554396615302</v>
+        <v>41.85766985784532</v>
       </c>
       <c r="L9" t="n">
-        <v>41.97352273874154</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>51.21309064514766</v>
       </c>
       <c r="N9" t="n">
         <v>21.34302821354166</v>
@@ -8549,13 +8549,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>49.88715133764835</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
         <v>50.86334842179818</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>51.78922952696383</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,25 +8610,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>48.75306611672156</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K10" t="n">
-        <v>47.9449520549127</v>
+        <v>20.964654452712</v>
       </c>
       <c r="L10" t="n">
-        <v>21.91875989570122</v>
+        <v>50.03507002852091</v>
       </c>
       <c r="M10" t="n">
         <v>50.69175002430551</v>
       </c>
       <c r="N10" t="n">
-        <v>20.74890097560039</v>
+        <v>48.86521110842008</v>
       </c>
       <c r="O10" t="n">
-        <v>22.49918749842445</v>
+        <v>49.47948510062515</v>
       </c>
       <c r="P10" t="n">
-        <v>50.49711079080617</v>
+        <v>22.38080065798648</v>
       </c>
       <c r="Q10" t="n">
         <v>24.61956276478495</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8701,13 +8701,13 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>223.6197582748101</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>511.1225922539928</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>339.0562710261501</v>
       </c>
       <c r="Q11" t="n">
         <v>496.8170781441769</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>434.5303542594613</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>304.3153985732816</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>78.70880469517259</v>
+        <v>78.7088046951727</v>
       </c>
       <c r="K13" t="n">
         <v>249.7804132464869</v>
@@ -8926,22 +8926,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>570.1186602552716</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>419.5311114178342</v>
       </c>
       <c r="M14" t="n">
-        <v>377.8032931041088</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>496.4099658176564</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>511.1225922539926</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>238.002523654131</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>491.5808533018869</v>
+        <v>304.3153985732816</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9166,16 +9166,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>492.8326935289285</v>
       </c>
       <c r="L17" t="n">
-        <v>527.7279018952187</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>308.145447275108</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9184,10 +9184,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>84.91738070590431</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9254,7 +9254,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>538.1452888916228</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>304.3153985732816</v>
       </c>
       <c r="R18" t="n">
         <v>106.5207073584907</v>
@@ -9400,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>187.1845103377014</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9418,7 +9418,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>547.5578401911007</v>
+        <v>339.0562710261501</v>
       </c>
       <c r="Q20" t="n">
         <v>496.8170781441769</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>295.0530226965566</v>
+        <v>238.0025236541309</v>
       </c>
       <c r="K21" t="n">
-        <v>304.3153985732818</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
-        <v>977.3272420480539</v>
+        <v>51.61515110920007</v>
       </c>
       <c r="M23" t="n">
-        <v>1034.914568608284</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>729.7343218785646</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>107.7875679679513</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>729.5833769560179</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9880,25 +9880,25 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>977.3272420480539</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>51.61515110919819</v>
       </c>
       <c r="O26" t="n">
-        <v>872.1457328400181</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,16 +9950,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>729.5833769560178</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>304.3153985732816</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>977.3272420480539</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1023.391803124043</v>
+        <v>51.61515110920001</v>
       </c>
       <c r="O29" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>608.6849286245077</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10202,7 +10202,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>729.583376956018</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>304.3153985732816</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10354,22 +10354,22 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>942.6875752640245</v>
       </c>
       <c r="M32" t="n">
-        <v>1034.914568608284</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>134.2072587971447</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>729.5833769560178</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>304.3153985732816</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,16 +10585,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>160.7071032043</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>570.1186602552717</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>500.7336652134086</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10603,10 +10603,10 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>339.0562710261501</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
         <v>153.7764225027789</v>
@@ -10661,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>304.3153985732815</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>434.5303542594613</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>395.6860795026527</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>339.0562710261504</v>
+        <v>187.1845103377022</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10840,7 +10840,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>547.5578401911008</v>
       </c>
       <c r="Q38" t="n">
         <v>496.8170781441769</v>
@@ -10916,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>410.8361059317725</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>304.3153985732816</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,16 +11059,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>207.0144486335841</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>527.7279018952189</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>500.7336652134086</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11077,7 +11077,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>234.0086853153947</v>
       </c>
       <c r="Q41" t="n">
         <v>496.8170781441769</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>238.002523654131</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>491.5808533018869</v>
+        <v>304.3153985732816</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>395.6860795026527</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>388.1922201446938</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>500.7336652134085</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>496.4099658176565</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>339.0562710261505</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>496.8170781441769</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
         <v>295.0530226965566</v>
@@ -11384,7 +11384,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>328.0096469009705</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>304.3153985732816</v>
       </c>
       <c r="R45" t="n">
         <v>106.5207073584907</v>
@@ -11454,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>78.70880469517346</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K46" t="n">
         <v>249.7804132464869</v>
@@ -23263,19 +23263,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>352.4075606113028</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>398.8272831086575</v>
+        <v>349.3908280163118</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>279.8515591943052</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>69.86271419048811</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>212.2884438087945</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>16.95209132584753</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>123.3051762209847</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>140.257267546832</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23497,22 +23497,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068496</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>398.8272831086575</v>
       </c>
       <c r="H14" t="n">
-        <v>98.7133157010841</v>
+        <v>279.8515591943052</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>69.86271419048803</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.6538892153287</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>129.1485744589227</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439301</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>44.3422551085855</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>123.3051762209856</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>78.96292111239987</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>16.95209132584754</v>
+        <v>16.95209132584753</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23731,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>170.1663878556614</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>279.8515591943052</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23791,10 +23791,10 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>68.55661568754942</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
         <v>407.6027988439302</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>44.34225510858572</v>
+        <v>44.34225510858573</v>
       </c>
       <c r="I19" t="n">
         <v>78.96292111239987</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>16.95209132584754</v>
+        <v>16.95209132584753</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>84.54434476763066</v>
+        <v>398.8272831086575</v>
       </c>
       <c r="H20" t="n">
-        <v>279.8515591943052</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>69.86271419048811</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>212.2884438087945</v>
       </c>
       <c r="U20" t="n">
-        <v>255.6538892153287</v>
+        <v>225.1571936342704</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24135,7 +24135,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>123.3051762209856</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>61.29434643443308</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>78.96292111239987</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>16.95209132584754</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>123.3051762209858</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>44.342255108586</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>78.96292111239987</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>16.95209132584754</v>
+        <v>16.95209132584753</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>44.34225510858597</v>
       </c>
       <c r="I28" t="n">
         <v>78.96292111239987</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>16.95209132584754</v>
+        <v>16.95209132584753</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>44.34225510858602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24840,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>44.34225510858597</v>
       </c>
       <c r="D31" t="n">
-        <v>123.305176220986</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>78.96292111239987</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>16.95209132584754</v>
+        <v>16.95209132584753</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>44.34225510858596</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>44.34225510858602</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>78.96292111239987</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.95209132584754</v>
+        <v>16.95209132584753</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25153,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>192.3039933727576</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>69.86271419048811</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>255.6538892153287</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>393.9907814989144</v>
       </c>
     </row>
     <row r="36">
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>140.2572675468321</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>44.34225510858573</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>78.96292111239987</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>16.95209132584753</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25390,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1.563345296257978</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>69.86271419048811</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>255.6538892153287</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25456,10 +25456,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>103.9977487631027</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>140.2572675468319</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>123.3051762209847</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>16.95209132584753</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25630,22 +25630,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>128.0030622302541</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>408.3567648028706</v>
       </c>
       <c r="G41" t="n">
-        <v>398.8272831086575</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>279.8515591943052</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>69.86271419048811</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25687,7 +25687,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -25791,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>123.3051762209847</v>
       </c>
       <c r="E43" t="n">
-        <v>140.2572675468321</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>16.95209132584753</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>101.366942307587</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25876,13 +25876,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>398.8272831086575</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>279.8515591943052</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25921,13 +25921,13 @@
         <v>212.2884438087945</v>
       </c>
       <c r="U44" t="n">
-        <v>222.3992976307285</v>
+        <v>255.6538892153287</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>44.34225510858573</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>78.96292111239987</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>16.95209132584753</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>140.2572675468317</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>431708.2900576965</v>
+        <v>431708.2900576964</v>
       </c>
     </row>
     <row r="6">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>635023.9859460415</v>
+        <v>635023.9859460414</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>431708.2900576965</v>
+        <v>431708.2900576964</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>431708.2900576964</v>
+        <v>431708.2900576965</v>
       </c>
     </row>
     <row r="15">
@@ -26319,7 +26319,7 @@
         <v>509637.3345097677</v>
       </c>
       <c r="D2" t="n">
-        <v>509637.3345097677</v>
+        <v>509637.3345097678</v>
       </c>
       <c r="E2" t="n">
         <v>362304.0516361091</v>
@@ -26328,22 +26328,22 @@
         <v>362304.0516361091</v>
       </c>
       <c r="G2" t="n">
+        <v>362304.0516361092</v>
+      </c>
+      <c r="H2" t="n">
         <v>362304.051636109</v>
       </c>
-      <c r="H2" t="n">
-        <v>362304.0516361091</v>
-      </c>
       <c r="I2" t="n">
-        <v>506691.9318912841</v>
+        <v>506691.9318912839</v>
       </c>
       <c r="J2" t="n">
-        <v>506691.9318912838</v>
+        <v>506691.931891284</v>
       </c>
       <c r="K2" t="n">
-        <v>506691.9318912843</v>
+        <v>506691.9318912844</v>
       </c>
       <c r="L2" t="n">
-        <v>506691.9318912842</v>
+        <v>506691.931891284</v>
       </c>
       <c r="M2" t="n">
         <v>362304.0516361091</v>
@@ -26352,10 +26352,10 @@
         <v>362304.0516361091</v>
       </c>
       <c r="O2" t="n">
-        <v>362304.0516361091</v>
+        <v>362304.0516361092</v>
       </c>
       <c r="P2" t="n">
-        <v>362304.051636109</v>
+        <v>362304.0516361088</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9422.422200640955</v>
+        <v>9422.422200640931</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500373.5433647966</v>
+        <v>500373.5433647967</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>142049.9200116687</v>
       </c>
       <c r="J3" t="n">
-        <v>7356.463848391494</v>
+        <v>7356.463848391435</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>39583.91030305275</v>
+        <v>39583.91030305273</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,7 +26429,7 @@
         <v>69962.46559269914</v>
       </c>
       <c r="F4" t="n">
-        <v>69962.46559269915</v>
+        <v>69962.46559269913</v>
       </c>
       <c r="G4" t="n">
         <v>69962.46559269913</v>
@@ -26441,7 +26441,7 @@
         <v>129142.8290071543</v>
       </c>
       <c r="J4" t="n">
-        <v>129142.8290071543</v>
+        <v>129142.8290071542</v>
       </c>
       <c r="K4" t="n">
         <v>129142.8290071543</v>
@@ -26450,7 +26450,7 @@
         <v>129142.8290071543</v>
       </c>
       <c r="M4" t="n">
-        <v>69962.46559269917</v>
+        <v>69962.46559269914</v>
       </c>
       <c r="N4" t="n">
         <v>69962.46559269915</v>
@@ -26459,7 +26459,7 @@
         <v>69962.46559269915</v>
       </c>
       <c r="P4" t="n">
-        <v>69962.46559269917</v>
+        <v>69962.46559269913</v>
       </c>
     </row>
     <row r="5">
@@ -26484,16 +26484,16 @@
         <v>51807.93193102434</v>
       </c>
       <c r="G5" t="n">
-        <v>51807.93193102433</v>
+        <v>51807.93193102434</v>
       </c>
       <c r="H5" t="n">
-        <v>51807.93193102433</v>
+        <v>51807.93193102434</v>
       </c>
       <c r="I5" t="n">
         <v>84286.13085743278</v>
       </c>
       <c r="J5" t="n">
-        <v>84286.13085743278</v>
+        <v>84286.13085743277</v>
       </c>
       <c r="K5" t="n">
         <v>84286.13085743278</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>144487.8564371478</v>
+        <v>144487.8564371479</v>
       </c>
       <c r="C6" t="n">
         <v>153910.2786377888</v>
       </c>
       <c r="D6" t="n">
-        <v>153910.2786377888</v>
+        <v>153910.278637789</v>
       </c>
       <c r="E6" t="n">
-        <v>-259839.889252411</v>
+        <v>-260260.8414891929</v>
       </c>
       <c r="F6" t="n">
-        <v>240533.6541123856</v>
+        <v>240112.7018756037</v>
       </c>
       <c r="G6" t="n">
-        <v>240533.6541123856</v>
+        <v>240112.7018756038</v>
       </c>
       <c r="H6" t="n">
-        <v>240533.6541123856</v>
+        <v>240112.7018756036</v>
       </c>
       <c r="I6" t="n">
-        <v>151213.0520150283</v>
+        <v>151204.6365789753</v>
       </c>
       <c r="J6" t="n">
-        <v>285906.5081783053</v>
+        <v>285898.0927422527</v>
       </c>
       <c r="K6" t="n">
-        <v>293262.9720266972</v>
+        <v>293254.5565906445</v>
       </c>
       <c r="L6" t="n">
-        <v>293262.9720266971</v>
+        <v>293254.556590644</v>
       </c>
       <c r="M6" t="n">
-        <v>200949.7438093328</v>
+        <v>200528.791572551</v>
       </c>
       <c r="N6" t="n">
-        <v>240533.6541123856</v>
+        <v>240112.7018756036</v>
       </c>
       <c r="O6" t="n">
-        <v>240533.6541123856</v>
+        <v>240112.7018756038</v>
       </c>
       <c r="P6" t="n">
-        <v>240533.6541123855</v>
+        <v>240112.7018756035</v>
       </c>
     </row>
   </sheetData>
@@ -26798,16 +26798,16 @@
         <v>28.11631013281968</v>
       </c>
       <c r="E4" t="n">
-        <v>721.138605732687</v>
+        <v>721.1386057326869</v>
       </c>
       <c r="F4" t="n">
-        <v>721.1386057326868</v>
+        <v>721.1386057326869</v>
       </c>
       <c r="G4" t="n">
-        <v>721.1386057326868</v>
+        <v>721.1386057326869</v>
       </c>
       <c r="H4" t="n">
-        <v>721.1386057326868</v>
+        <v>721.1386057326869</v>
       </c>
       <c r="I4" t="n">
         <v>1255.319509127562</v>
@@ -26816,13 +26816,13 @@
         <v>1255.319509127562</v>
       </c>
       <c r="K4" t="n">
-        <v>1255.319509127563</v>
+        <v>1255.319509127562</v>
       </c>
       <c r="L4" t="n">
-        <v>1255.319509127563</v>
+        <v>1255.319509127562</v>
       </c>
       <c r="M4" t="n">
-        <v>721.138605732687</v>
+        <v>721.1386057326869</v>
       </c>
       <c r="N4" t="n">
         <v>721.138605732687</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>534.1809033948757</v>
+        <v>534.1809033948756</v>
       </c>
       <c r="J4" t="n">
-        <v>28.11631013281976</v>
+        <v>28.11631013281954</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>158.8413922049917</v>
+        <v>158.8413922049916</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27469,13 +27469,13 @@
         <v>103.6549143897921</v>
       </c>
       <c r="F3" t="n">
-        <v>67.94452604893732</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G3" t="n">
-        <v>64.99692393175235</v>
+        <v>93.11323406457203</v>
       </c>
       <c r="H3" t="n">
-        <v>24.72602217249382</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27508,22 +27508,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>80.51100496435802</v>
+        <v>55.74615899937044</v>
       </c>
       <c r="T3" t="n">
-        <v>140.4611363452985</v>
+        <v>112.3448262124788</v>
       </c>
       <c r="U3" t="n">
-        <v>182.9205141195597</v>
+        <v>154.80420398674</v>
       </c>
       <c r="V3" t="n">
-        <v>174.8070973393067</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W3" t="n">
         <v>194.556163395115</v>
       </c>
       <c r="X3" t="n">
-        <v>161.8425727710037</v>
+        <v>133.726262638184</v>
       </c>
       <c r="Y3" t="n">
         <v>138.2959597602405</v>
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>163.4994630599574</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>136.9187591795094</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>136.4298136558553</v>
       </c>
       <c r="F4" t="n">
         <v>142.0268463503655</v>
       </c>
       <c r="G4" t="n">
-        <v>136.4780898758905</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>114.2419956741075</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>70.65457244430709</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27697,19 +27697,19 @@
         <v>127.6377393258621</v>
       </c>
       <c r="C6" t="n">
-        <v>116.3308444476703</v>
+        <v>91.56599848268269</v>
       </c>
       <c r="D6" t="n">
         <v>102.8015588998678</v>
       </c>
       <c r="E6" t="n">
-        <v>78.89006842480458</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F6" t="n">
-        <v>92.70937201392488</v>
+        <v>64.5930618811052</v>
       </c>
       <c r="G6" t="n">
-        <v>93.11323406457203</v>
+        <v>64.99692393175235</v>
       </c>
       <c r="H6" t="n">
         <v>24.72602217249382</v>
@@ -27751,7 +27751,7 @@
         <v>140.4611363452985</v>
       </c>
       <c r="U6" t="n">
-        <v>154.80420398674</v>
+        <v>182.9205141195597</v>
       </c>
       <c r="V6" t="n">
         <v>202.9234074721264</v>
@@ -27763,7 +27763,7 @@
         <v>161.8425727710037</v>
       </c>
       <c r="Y6" t="n">
-        <v>110.1796496274208</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="7">
@@ -27779,13 +27779,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>136.9187591795094</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>142.0268463503655</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
@@ -27794,7 +27794,7 @@
         <v>114.2419956741075</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>70.65457244430709</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>18.4519170468789</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
@@ -27830,7 +27830,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>252.6177580497112</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
@@ -27839,7 +27839,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>212.0219474558332</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -27931,10 +27931,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>127.6377393258621</v>
+        <v>99.52142919304239</v>
       </c>
       <c r="C9" t="n">
-        <v>116.3308444476703</v>
+        <v>91.56599848268269</v>
       </c>
       <c r="D9" t="n">
         <v>102.8015588998678</v>
@@ -27949,7 +27949,7 @@
         <v>93.11323406457203</v>
       </c>
       <c r="H9" t="n">
-        <v>24.72602217249382</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27982,10 +27982,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>52.39469483153834</v>
+        <v>80.51100496435802</v>
       </c>
       <c r="T9" t="n">
-        <v>112.3448262124788</v>
+        <v>140.4611363452985</v>
       </c>
       <c r="U9" t="n">
         <v>182.9205141195597</v>
@@ -27997,10 +27997,10 @@
         <v>194.556163395115</v>
       </c>
       <c r="X9" t="n">
-        <v>161.8425727710037</v>
+        <v>133.726262638184</v>
       </c>
       <c r="Y9" t="n">
-        <v>113.531113795253</v>
+        <v>110.1796496274208</v>
       </c>
     </row>
     <row r="10">
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>163.4994630599574</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>142.1365273570535</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>133.5672950116773</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>18.4519170468789</v>
       </c>
       <c r="S10" t="n">
         <v>168.4336970060565</v>
@@ -28067,19 +28067,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>252.6177580497112</v>
       </c>
       <c r="V10" t="n">
-        <v>250.7780425852317</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>243.9875696563924</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>195.9630304943357</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -31752,13 +31752,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.468388677788386</v>
+        <v>1.468388677788387</v>
       </c>
       <c r="H11" t="n">
         <v>15.03813554640032</v>
       </c>
       <c r="I11" t="n">
-        <v>56.61005450043682</v>
+        <v>56.61005450043683</v>
       </c>
       <c r="J11" t="n">
         <v>124.6276535414422</v>
@@ -31773,7 +31773,7 @@
         <v>257.8362034187102</v>
       </c>
       <c r="N11" t="n">
-        <v>262.0082627494764</v>
+        <v>262.0082627494765</v>
       </c>
       <c r="O11" t="n">
         <v>247.4069728347182</v>
@@ -31785,13 +31785,13 @@
         <v>158.5694578285207</v>
       </c>
       <c r="R11" t="n">
-        <v>92.23867028112481</v>
+        <v>92.23867028112483</v>
       </c>
       <c r="S11" t="n">
-        <v>33.46090699510289</v>
+        <v>33.4609069951029</v>
       </c>
       <c r="T11" t="n">
-        <v>6.427871437018664</v>
+        <v>6.427871437018665</v>
       </c>
       <c r="U11" t="n">
         <v>0.1174710942230709</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7856572062336641</v>
+        <v>0.7856572062336643</v>
       </c>
       <c r="H12" t="n">
-        <v>7.587794597046178</v>
+        <v>7.587794597046179</v>
       </c>
       <c r="I12" t="n">
         <v>27.05003977602748</v>
@@ -31849,7 +31849,7 @@
         <v>170.5875438359542</v>
       </c>
       <c r="M12" t="n">
-        <v>199.0676175619244</v>
+        <v>199.0676175619245</v>
       </c>
       <c r="N12" t="n">
         <v>204.3363450546055</v>
@@ -31858,13 +31858,13 @@
         <v>186.9278353796385</v>
       </c>
       <c r="P12" t="n">
-        <v>150.0260677412336</v>
+        <v>150.0260677412337</v>
       </c>
       <c r="Q12" t="n">
         <v>100.2884532027393</v>
       </c>
       <c r="R12" t="n">
-        <v>48.77966408527962</v>
+        <v>48.77966408527963</v>
       </c>
       <c r="S12" t="n">
         <v>14.59323801929634</v>
@@ -31873,7 +31873,7 @@
         <v>3.166749879512005</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05168797409432003</v>
+        <v>0.05168797409432004</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,22 +31910,22 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6586686097702418</v>
+        <v>0.6586686097702419</v>
       </c>
       <c r="H13" t="n">
         <v>5.8561627305027</v>
       </c>
       <c r="I13" t="n">
-        <v>19.80796146472691</v>
+        <v>19.80796146472692</v>
       </c>
       <c r="J13" t="n">
-        <v>46.56787071075609</v>
+        <v>46.5678707107561</v>
       </c>
       <c r="K13" t="n">
-        <v>76.52531666239716</v>
+        <v>76.52531666239717</v>
       </c>
       <c r="L13" t="n">
-        <v>97.9260585834776</v>
+        <v>97.92605858347761</v>
       </c>
       <c r="M13" t="n">
         <v>103.2492985297116</v>
@@ -31934,16 +31934,16 @@
         <v>100.7942609842044</v>
       </c>
       <c r="O13" t="n">
-        <v>93.09981404279748</v>
+        <v>93.09981404279749</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66297440348448</v>
+        <v>79.6629744034845</v>
       </c>
       <c r="Q13" t="n">
-        <v>55.15451422357907</v>
+        <v>55.15451422357908</v>
       </c>
       <c r="R13" t="n">
-        <v>29.61613585385104</v>
+        <v>29.61613585385105</v>
       </c>
       <c r="S13" t="n">
         <v>11.47879749935957</v>
@@ -31952,7 +31952,7 @@
         <v>2.814311332654669</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0359273787147405</v>
+        <v>0.03592737871474051</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.468388677788386</v>
+        <v>1.468388677788387</v>
       </c>
       <c r="H14" t="n">
         <v>15.03813554640032</v>
       </c>
       <c r="I14" t="n">
-        <v>56.61005450043682</v>
+        <v>56.61005450043683</v>
       </c>
       <c r="J14" t="n">
         <v>124.6276535414422</v>
@@ -32010,7 +32010,7 @@
         <v>257.8362034187102</v>
       </c>
       <c r="N14" t="n">
-        <v>262.0082627494764</v>
+        <v>262.0082627494765</v>
       </c>
       <c r="O14" t="n">
         <v>247.4069728347182</v>
@@ -32022,13 +32022,13 @@
         <v>158.5694578285207</v>
       </c>
       <c r="R14" t="n">
-        <v>92.23867028112481</v>
+        <v>92.23867028112483</v>
       </c>
       <c r="S14" t="n">
-        <v>33.46090699510289</v>
+        <v>33.4609069951029</v>
       </c>
       <c r="T14" t="n">
-        <v>6.427871437018664</v>
+        <v>6.427871437018665</v>
       </c>
       <c r="U14" t="n">
         <v>0.1174710942230709</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7856572062336641</v>
+        <v>0.7856572062336643</v>
       </c>
       <c r="H15" t="n">
-        <v>7.587794597046178</v>
+        <v>7.587794597046179</v>
       </c>
       <c r="I15" t="n">
         <v>27.05003977602748</v>
@@ -32086,7 +32086,7 @@
         <v>170.5875438359542</v>
       </c>
       <c r="M15" t="n">
-        <v>199.0676175619244</v>
+        <v>199.0676175619245</v>
       </c>
       <c r="N15" t="n">
         <v>204.3363450546055</v>
@@ -32095,13 +32095,13 @@
         <v>186.9278353796385</v>
       </c>
       <c r="P15" t="n">
-        <v>150.0260677412336</v>
+        <v>150.0260677412337</v>
       </c>
       <c r="Q15" t="n">
         <v>100.2884532027393</v>
       </c>
       <c r="R15" t="n">
-        <v>48.77966408527962</v>
+        <v>48.77966408527963</v>
       </c>
       <c r="S15" t="n">
         <v>14.59323801929634</v>
@@ -32110,7 +32110,7 @@
         <v>3.166749879512005</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05168797409432003</v>
+        <v>0.05168797409432004</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,22 +32147,22 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6586686097702418</v>
+        <v>0.6586686097702419</v>
       </c>
       <c r="H16" t="n">
         <v>5.8561627305027</v>
       </c>
       <c r="I16" t="n">
-        <v>19.80796146472691</v>
+        <v>19.80796146472692</v>
       </c>
       <c r="J16" t="n">
-        <v>46.56787071075609</v>
+        <v>46.5678707107561</v>
       </c>
       <c r="K16" t="n">
-        <v>76.52531666239716</v>
+        <v>76.52531666239717</v>
       </c>
       <c r="L16" t="n">
-        <v>97.9260585834776</v>
+        <v>97.92605858347761</v>
       </c>
       <c r="M16" t="n">
         <v>103.2492985297116</v>
@@ -32171,16 +32171,16 @@
         <v>100.7942609842044</v>
       </c>
       <c r="O16" t="n">
-        <v>93.09981404279748</v>
+        <v>93.09981404279749</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66297440348448</v>
+        <v>79.6629744034845</v>
       </c>
       <c r="Q16" t="n">
-        <v>55.15451422357907</v>
+        <v>55.15451422357908</v>
       </c>
       <c r="R16" t="n">
-        <v>29.61613585385104</v>
+        <v>29.61613585385105</v>
       </c>
       <c r="S16" t="n">
         <v>11.47879749935957</v>
@@ -32189,7 +32189,7 @@
         <v>2.814311332654669</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0359273787147405</v>
+        <v>0.03592737871474051</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.468388677788386</v>
+        <v>1.468388677788387</v>
       </c>
       <c r="H17" t="n">
         <v>15.03813554640032</v>
       </c>
       <c r="I17" t="n">
-        <v>56.61005450043682</v>
+        <v>56.61005450043683</v>
       </c>
       <c r="J17" t="n">
         <v>124.6276535414422</v>
@@ -32247,7 +32247,7 @@
         <v>257.8362034187102</v>
       </c>
       <c r="N17" t="n">
-        <v>262.0082627494764</v>
+        <v>262.0082627494765</v>
       </c>
       <c r="O17" t="n">
         <v>247.4069728347182</v>
@@ -32259,13 +32259,13 @@
         <v>158.5694578285207</v>
       </c>
       <c r="R17" t="n">
-        <v>92.23867028112481</v>
+        <v>92.23867028112483</v>
       </c>
       <c r="S17" t="n">
-        <v>33.46090699510289</v>
+        <v>33.4609069951029</v>
       </c>
       <c r="T17" t="n">
-        <v>6.427871437018664</v>
+        <v>6.427871437018665</v>
       </c>
       <c r="U17" t="n">
         <v>0.1174710942230709</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7856572062336641</v>
+        <v>0.7856572062336643</v>
       </c>
       <c r="H18" t="n">
-        <v>7.587794597046178</v>
+        <v>7.587794597046179</v>
       </c>
       <c r="I18" t="n">
         <v>27.05003977602748</v>
@@ -32323,7 +32323,7 @@
         <v>170.5875438359542</v>
       </c>
       <c r="M18" t="n">
-        <v>199.0676175619244</v>
+        <v>199.0676175619245</v>
       </c>
       <c r="N18" t="n">
         <v>204.3363450546055</v>
@@ -32332,13 +32332,13 @@
         <v>186.9278353796385</v>
       </c>
       <c r="P18" t="n">
-        <v>150.0260677412336</v>
+        <v>150.0260677412337</v>
       </c>
       <c r="Q18" t="n">
         <v>100.2884532027393</v>
       </c>
       <c r="R18" t="n">
-        <v>48.77966408527962</v>
+        <v>48.77966408527963</v>
       </c>
       <c r="S18" t="n">
         <v>14.59323801929634</v>
@@ -32347,7 +32347,7 @@
         <v>3.166749879512005</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05168797409432003</v>
+        <v>0.05168797409432004</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,22 +32384,22 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6586686097702418</v>
+        <v>0.6586686097702419</v>
       </c>
       <c r="H19" t="n">
         <v>5.8561627305027</v>
       </c>
       <c r="I19" t="n">
-        <v>19.80796146472691</v>
+        <v>19.80796146472692</v>
       </c>
       <c r="J19" t="n">
-        <v>46.56787071075609</v>
+        <v>46.5678707107561</v>
       </c>
       <c r="K19" t="n">
-        <v>76.52531666239716</v>
+        <v>76.52531666239717</v>
       </c>
       <c r="L19" t="n">
-        <v>97.9260585834776</v>
+        <v>97.92605858347761</v>
       </c>
       <c r="M19" t="n">
         <v>103.2492985297116</v>
@@ -32408,16 +32408,16 @@
         <v>100.7942609842044</v>
       </c>
       <c r="O19" t="n">
-        <v>93.09981404279748</v>
+        <v>93.09981404279749</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66297440348448</v>
+        <v>79.6629744034845</v>
       </c>
       <c r="Q19" t="n">
-        <v>55.15451422357907</v>
+        <v>55.15451422357908</v>
       </c>
       <c r="R19" t="n">
-        <v>29.61613585385104</v>
+        <v>29.61613585385105</v>
       </c>
       <c r="S19" t="n">
         <v>11.47879749935957</v>
@@ -32426,7 +32426,7 @@
         <v>2.814311332654669</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0359273787147405</v>
+        <v>0.03592737871474051</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,13 +32463,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.468388677788386</v>
+        <v>1.468388677788387</v>
       </c>
       <c r="H20" t="n">
         <v>15.03813554640032</v>
       </c>
       <c r="I20" t="n">
-        <v>56.61005450043682</v>
+        <v>56.61005450043683</v>
       </c>
       <c r="J20" t="n">
         <v>124.6276535414422</v>
@@ -32484,7 +32484,7 @@
         <v>257.8362034187102</v>
       </c>
       <c r="N20" t="n">
-        <v>262.0082627494764</v>
+        <v>262.0082627494765</v>
       </c>
       <c r="O20" t="n">
         <v>247.4069728347182</v>
@@ -32496,13 +32496,13 @@
         <v>158.5694578285207</v>
       </c>
       <c r="R20" t="n">
-        <v>92.23867028112481</v>
+        <v>92.23867028112483</v>
       </c>
       <c r="S20" t="n">
-        <v>33.46090699510289</v>
+        <v>33.4609069951029</v>
       </c>
       <c r="T20" t="n">
-        <v>6.427871437018664</v>
+        <v>6.427871437018665</v>
       </c>
       <c r="U20" t="n">
         <v>0.1174710942230709</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7856572062336641</v>
+        <v>0.7856572062336643</v>
       </c>
       <c r="H21" t="n">
-        <v>7.587794597046178</v>
+        <v>7.587794597046179</v>
       </c>
       <c r="I21" t="n">
         <v>27.05003977602748</v>
@@ -32560,7 +32560,7 @@
         <v>170.5875438359542</v>
       </c>
       <c r="M21" t="n">
-        <v>199.0676175619244</v>
+        <v>199.0676175619245</v>
       </c>
       <c r="N21" t="n">
         <v>204.3363450546055</v>
@@ -32569,13 +32569,13 @@
         <v>186.9278353796385</v>
       </c>
       <c r="P21" t="n">
-        <v>150.0260677412336</v>
+        <v>150.0260677412337</v>
       </c>
       <c r="Q21" t="n">
         <v>100.2884532027393</v>
       </c>
       <c r="R21" t="n">
-        <v>48.77966408527962</v>
+        <v>48.77966408527963</v>
       </c>
       <c r="S21" t="n">
         <v>14.59323801929634</v>
@@ -32584,7 +32584,7 @@
         <v>3.166749879512005</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05168797409432003</v>
+        <v>0.05168797409432004</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,22 +32621,22 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6586686097702418</v>
+        <v>0.6586686097702419</v>
       </c>
       <c r="H22" t="n">
         <v>5.8561627305027</v>
       </c>
       <c r="I22" t="n">
-        <v>19.80796146472691</v>
+        <v>19.80796146472692</v>
       </c>
       <c r="J22" t="n">
-        <v>46.56787071075609</v>
+        <v>46.5678707107561</v>
       </c>
       <c r="K22" t="n">
-        <v>76.52531666239716</v>
+        <v>76.52531666239717</v>
       </c>
       <c r="L22" t="n">
-        <v>97.9260585834776</v>
+        <v>97.92605858347761</v>
       </c>
       <c r="M22" t="n">
         <v>103.2492985297116</v>
@@ -32645,16 +32645,16 @@
         <v>100.7942609842044</v>
       </c>
       <c r="O22" t="n">
-        <v>93.09981404279748</v>
+        <v>93.09981404279749</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66297440348448</v>
+        <v>79.6629744034845</v>
       </c>
       <c r="Q22" t="n">
-        <v>55.15451422357907</v>
+        <v>55.15451422357908</v>
       </c>
       <c r="R22" t="n">
-        <v>29.61613585385104</v>
+        <v>29.61613585385105</v>
       </c>
       <c r="S22" t="n">
         <v>11.47879749935957</v>
@@ -32663,7 +32663,7 @@
         <v>2.814311332654669</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0359273787147405</v>
+        <v>0.03592737871474051</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,13 +32700,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.468388677788386</v>
+        <v>1.468388677788387</v>
       </c>
       <c r="H23" t="n">
         <v>15.03813554640032</v>
       </c>
       <c r="I23" t="n">
-        <v>56.61005450043682</v>
+        <v>56.61005450043683</v>
       </c>
       <c r="J23" t="n">
         <v>124.6276535414422</v>
@@ -32721,7 +32721,7 @@
         <v>257.8362034187102</v>
       </c>
       <c r="N23" t="n">
-        <v>262.0082627494764</v>
+        <v>262.0082627494765</v>
       </c>
       <c r="O23" t="n">
         <v>247.4069728347182</v>
@@ -32733,13 +32733,13 @@
         <v>158.5694578285207</v>
       </c>
       <c r="R23" t="n">
-        <v>92.23867028112481</v>
+        <v>92.23867028112483</v>
       </c>
       <c r="S23" t="n">
-        <v>33.46090699510289</v>
+        <v>33.4609069951029</v>
       </c>
       <c r="T23" t="n">
-        <v>6.427871437018664</v>
+        <v>6.427871437018665</v>
       </c>
       <c r="U23" t="n">
         <v>0.1174710942230709</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7856572062336641</v>
+        <v>0.7856572062336643</v>
       </c>
       <c r="H24" t="n">
-        <v>7.587794597046178</v>
+        <v>7.587794597046179</v>
       </c>
       <c r="I24" t="n">
         <v>27.05003977602748</v>
@@ -32797,7 +32797,7 @@
         <v>170.5875438359542</v>
       </c>
       <c r="M24" t="n">
-        <v>199.0676175619244</v>
+        <v>199.0676175619245</v>
       </c>
       <c r="N24" t="n">
         <v>204.3363450546055</v>
@@ -32806,13 +32806,13 @@
         <v>186.9278353796385</v>
       </c>
       <c r="P24" t="n">
-        <v>150.0260677412336</v>
+        <v>150.0260677412337</v>
       </c>
       <c r="Q24" t="n">
         <v>100.2884532027393</v>
       </c>
       <c r="R24" t="n">
-        <v>48.77966408527962</v>
+        <v>48.77966408527963</v>
       </c>
       <c r="S24" t="n">
         <v>14.59323801929634</v>
@@ -32821,7 +32821,7 @@
         <v>3.166749879512005</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05168797409432003</v>
+        <v>0.05168797409432004</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,22 +32858,22 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6586686097702418</v>
+        <v>0.6586686097702419</v>
       </c>
       <c r="H25" t="n">
         <v>5.8561627305027</v>
       </c>
       <c r="I25" t="n">
-        <v>19.80796146472691</v>
+        <v>19.80796146472692</v>
       </c>
       <c r="J25" t="n">
-        <v>46.56787071075609</v>
+        <v>46.5678707107561</v>
       </c>
       <c r="K25" t="n">
-        <v>76.52531666239716</v>
+        <v>76.52531666239717</v>
       </c>
       <c r="L25" t="n">
-        <v>97.9260585834776</v>
+        <v>97.92605858347761</v>
       </c>
       <c r="M25" t="n">
         <v>103.2492985297116</v>
@@ -32882,16 +32882,16 @@
         <v>100.7942609842044</v>
       </c>
       <c r="O25" t="n">
-        <v>93.09981404279748</v>
+        <v>93.09981404279749</v>
       </c>
       <c r="P25" t="n">
-        <v>79.66297440348448</v>
+        <v>79.6629744034845</v>
       </c>
       <c r="Q25" t="n">
-        <v>55.15451422357907</v>
+        <v>55.15451422357908</v>
       </c>
       <c r="R25" t="n">
-        <v>29.61613585385104</v>
+        <v>29.61613585385105</v>
       </c>
       <c r="S25" t="n">
         <v>11.47879749935957</v>
@@ -32900,7 +32900,7 @@
         <v>2.814311332654669</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0359273787147405</v>
+        <v>0.03592737871474051</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,13 +32937,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.468388677788386</v>
+        <v>1.468388677788387</v>
       </c>
       <c r="H26" t="n">
         <v>15.03813554640032</v>
       </c>
       <c r="I26" t="n">
-        <v>56.61005450043682</v>
+        <v>56.61005450043683</v>
       </c>
       <c r="J26" t="n">
         <v>124.6276535414422</v>
@@ -32958,7 +32958,7 @@
         <v>257.8362034187102</v>
       </c>
       <c r="N26" t="n">
-        <v>262.0082627494764</v>
+        <v>262.0082627494765</v>
       </c>
       <c r="O26" t="n">
         <v>247.4069728347182</v>
@@ -32970,13 +32970,13 @@
         <v>158.5694578285207</v>
       </c>
       <c r="R26" t="n">
-        <v>92.23867028112481</v>
+        <v>92.23867028112483</v>
       </c>
       <c r="S26" t="n">
-        <v>33.46090699510289</v>
+        <v>33.4609069951029</v>
       </c>
       <c r="T26" t="n">
-        <v>6.427871437018664</v>
+        <v>6.427871437018665</v>
       </c>
       <c r="U26" t="n">
         <v>0.1174710942230709</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.7856572062336641</v>
+        <v>0.7856572062336643</v>
       </c>
       <c r="H27" t="n">
-        <v>7.587794597046178</v>
+        <v>7.587794597046179</v>
       </c>
       <c r="I27" t="n">
         <v>27.05003977602748</v>
@@ -33034,7 +33034,7 @@
         <v>170.5875438359542</v>
       </c>
       <c r="M27" t="n">
-        <v>199.0676175619244</v>
+        <v>199.0676175619245</v>
       </c>
       <c r="N27" t="n">
         <v>204.3363450546055</v>
@@ -33043,13 +33043,13 @@
         <v>186.9278353796385</v>
       </c>
       <c r="P27" t="n">
-        <v>150.0260677412336</v>
+        <v>150.0260677412337</v>
       </c>
       <c r="Q27" t="n">
         <v>100.2884532027393</v>
       </c>
       <c r="R27" t="n">
-        <v>48.77966408527962</v>
+        <v>48.77966408527963</v>
       </c>
       <c r="S27" t="n">
         <v>14.59323801929634</v>
@@ -33058,7 +33058,7 @@
         <v>3.166749879512005</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05168797409432003</v>
+        <v>0.05168797409432004</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,22 +33095,22 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6586686097702418</v>
+        <v>0.6586686097702419</v>
       </c>
       <c r="H28" t="n">
         <v>5.8561627305027</v>
       </c>
       <c r="I28" t="n">
-        <v>19.80796146472691</v>
+        <v>19.80796146472692</v>
       </c>
       <c r="J28" t="n">
-        <v>46.56787071075609</v>
+        <v>46.5678707107561</v>
       </c>
       <c r="K28" t="n">
-        <v>76.52531666239716</v>
+        <v>76.52531666239717</v>
       </c>
       <c r="L28" t="n">
-        <v>97.9260585834776</v>
+        <v>97.92605858347761</v>
       </c>
       <c r="M28" t="n">
         <v>103.2492985297116</v>
@@ -33119,16 +33119,16 @@
         <v>100.7942609842044</v>
       </c>
       <c r="O28" t="n">
-        <v>93.09981404279748</v>
+        <v>93.09981404279749</v>
       </c>
       <c r="P28" t="n">
-        <v>79.66297440348448</v>
+        <v>79.6629744034845</v>
       </c>
       <c r="Q28" t="n">
-        <v>55.15451422357907</v>
+        <v>55.15451422357908</v>
       </c>
       <c r="R28" t="n">
-        <v>29.61613585385104</v>
+        <v>29.61613585385105</v>
       </c>
       <c r="S28" t="n">
         <v>11.47879749935957</v>
@@ -33137,7 +33137,7 @@
         <v>2.814311332654669</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0359273787147405</v>
+        <v>0.03592737871474051</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,13 +33174,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.468388677788386</v>
+        <v>1.468388677788387</v>
       </c>
       <c r="H29" t="n">
         <v>15.03813554640032</v>
       </c>
       <c r="I29" t="n">
-        <v>56.61005450043682</v>
+        <v>56.61005450043683</v>
       </c>
       <c r="J29" t="n">
         <v>124.6276535414422</v>
@@ -33195,7 +33195,7 @@
         <v>257.8362034187102</v>
       </c>
       <c r="N29" t="n">
-        <v>262.0082627494764</v>
+        <v>262.0082627494765</v>
       </c>
       <c r="O29" t="n">
         <v>247.4069728347182</v>
@@ -33207,13 +33207,13 @@
         <v>158.5694578285207</v>
       </c>
       <c r="R29" t="n">
-        <v>92.23867028112481</v>
+        <v>92.23867028112483</v>
       </c>
       <c r="S29" t="n">
-        <v>33.46090699510289</v>
+        <v>33.4609069951029</v>
       </c>
       <c r="T29" t="n">
-        <v>6.427871437018664</v>
+        <v>6.427871437018665</v>
       </c>
       <c r="U29" t="n">
         <v>0.1174710942230709</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.7856572062336641</v>
+        <v>0.7856572062336643</v>
       </c>
       <c r="H30" t="n">
-        <v>7.587794597046178</v>
+        <v>7.587794597046179</v>
       </c>
       <c r="I30" t="n">
         <v>27.05003977602748</v>
@@ -33271,7 +33271,7 @@
         <v>170.5875438359542</v>
       </c>
       <c r="M30" t="n">
-        <v>199.0676175619244</v>
+        <v>199.0676175619245</v>
       </c>
       <c r="N30" t="n">
         <v>204.3363450546055</v>
@@ -33280,13 +33280,13 @@
         <v>186.9278353796385</v>
       </c>
       <c r="P30" t="n">
-        <v>150.0260677412336</v>
+        <v>150.0260677412337</v>
       </c>
       <c r="Q30" t="n">
         <v>100.2884532027393</v>
       </c>
       <c r="R30" t="n">
-        <v>48.77966408527962</v>
+        <v>48.77966408527963</v>
       </c>
       <c r="S30" t="n">
         <v>14.59323801929634</v>
@@ -33295,7 +33295,7 @@
         <v>3.166749879512005</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05168797409432003</v>
+        <v>0.05168797409432004</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,22 +33332,22 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6586686097702418</v>
+        <v>0.6586686097702419</v>
       </c>
       <c r="H31" t="n">
         <v>5.8561627305027</v>
       </c>
       <c r="I31" t="n">
-        <v>19.80796146472691</v>
+        <v>19.80796146472692</v>
       </c>
       <c r="J31" t="n">
-        <v>46.56787071075609</v>
+        <v>46.5678707107561</v>
       </c>
       <c r="K31" t="n">
-        <v>76.52531666239716</v>
+        <v>76.52531666239717</v>
       </c>
       <c r="L31" t="n">
-        <v>97.9260585834776</v>
+        <v>97.92605858347761</v>
       </c>
       <c r="M31" t="n">
         <v>103.2492985297116</v>
@@ -33356,16 +33356,16 @@
         <v>100.7942609842044</v>
       </c>
       <c r="O31" t="n">
-        <v>93.09981404279748</v>
+        <v>93.09981404279749</v>
       </c>
       <c r="P31" t="n">
-        <v>79.66297440348448</v>
+        <v>79.6629744034845</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.15451422357907</v>
+        <v>55.15451422357908</v>
       </c>
       <c r="R31" t="n">
-        <v>29.61613585385104</v>
+        <v>29.61613585385105</v>
       </c>
       <c r="S31" t="n">
         <v>11.47879749935957</v>
@@ -33374,7 +33374,7 @@
         <v>2.814311332654669</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0359273787147405</v>
+        <v>0.03592737871474051</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,13 +33411,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.468388677788386</v>
+        <v>1.468388677788387</v>
       </c>
       <c r="H32" t="n">
         <v>15.03813554640032</v>
       </c>
       <c r="I32" t="n">
-        <v>56.61005450043682</v>
+        <v>56.61005450043683</v>
       </c>
       <c r="J32" t="n">
         <v>124.6276535414422</v>
@@ -33432,7 +33432,7 @@
         <v>257.8362034187102</v>
       </c>
       <c r="N32" t="n">
-        <v>262.0082627494764</v>
+        <v>262.0082627494765</v>
       </c>
       <c r="O32" t="n">
         <v>247.4069728347182</v>
@@ -33444,13 +33444,13 @@
         <v>158.5694578285207</v>
       </c>
       <c r="R32" t="n">
-        <v>92.23867028112481</v>
+        <v>92.23867028112483</v>
       </c>
       <c r="S32" t="n">
-        <v>33.46090699510289</v>
+        <v>33.4609069951029</v>
       </c>
       <c r="T32" t="n">
-        <v>6.427871437018664</v>
+        <v>6.427871437018665</v>
       </c>
       <c r="U32" t="n">
         <v>0.1174710942230709</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.7856572062336641</v>
+        <v>0.7856572062336643</v>
       </c>
       <c r="H33" t="n">
-        <v>7.587794597046178</v>
+        <v>7.587794597046179</v>
       </c>
       <c r="I33" t="n">
         <v>27.05003977602748</v>
@@ -33508,7 +33508,7 @@
         <v>170.5875438359542</v>
       </c>
       <c r="M33" t="n">
-        <v>199.0676175619244</v>
+        <v>199.0676175619245</v>
       </c>
       <c r="N33" t="n">
         <v>204.3363450546055</v>
@@ -33517,13 +33517,13 @@
         <v>186.9278353796385</v>
       </c>
       <c r="P33" t="n">
-        <v>150.0260677412336</v>
+        <v>150.0260677412337</v>
       </c>
       <c r="Q33" t="n">
         <v>100.2884532027393</v>
       </c>
       <c r="R33" t="n">
-        <v>48.77966408527962</v>
+        <v>48.77966408527963</v>
       </c>
       <c r="S33" t="n">
         <v>14.59323801929634</v>
@@ -33532,7 +33532,7 @@
         <v>3.166749879512005</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05168797409432003</v>
+        <v>0.05168797409432004</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,22 +33569,22 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6586686097702418</v>
+        <v>0.6586686097702419</v>
       </c>
       <c r="H34" t="n">
         <v>5.8561627305027</v>
       </c>
       <c r="I34" t="n">
-        <v>19.80796146472691</v>
+        <v>19.80796146472692</v>
       </c>
       <c r="J34" t="n">
-        <v>46.56787071075609</v>
+        <v>46.5678707107561</v>
       </c>
       <c r="K34" t="n">
-        <v>76.52531666239716</v>
+        <v>76.52531666239717</v>
       </c>
       <c r="L34" t="n">
-        <v>97.9260585834776</v>
+        <v>97.92605858347761</v>
       </c>
       <c r="M34" t="n">
         <v>103.2492985297116</v>
@@ -33593,16 +33593,16 @@
         <v>100.7942609842044</v>
       </c>
       <c r="O34" t="n">
-        <v>93.09981404279748</v>
+        <v>93.09981404279749</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66297440348448</v>
+        <v>79.6629744034845</v>
       </c>
       <c r="Q34" t="n">
-        <v>55.15451422357907</v>
+        <v>55.15451422357908</v>
       </c>
       <c r="R34" t="n">
-        <v>29.61613585385104</v>
+        <v>29.61613585385105</v>
       </c>
       <c r="S34" t="n">
         <v>11.47879749935957</v>
@@ -33611,7 +33611,7 @@
         <v>2.814311332654669</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0359273787147405</v>
+        <v>0.03592737871474051</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,13 +33648,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.468388677788386</v>
+        <v>1.468388677788387</v>
       </c>
       <c r="H35" t="n">
         <v>15.03813554640032</v>
       </c>
       <c r="I35" t="n">
-        <v>56.61005450043682</v>
+        <v>56.61005450043683</v>
       </c>
       <c r="J35" t="n">
         <v>124.6276535414422</v>
@@ -33669,7 +33669,7 @@
         <v>257.8362034187102</v>
       </c>
       <c r="N35" t="n">
-        <v>262.0082627494764</v>
+        <v>262.0082627494765</v>
       </c>
       <c r="O35" t="n">
         <v>247.4069728347182</v>
@@ -33681,13 +33681,13 @@
         <v>158.5694578285207</v>
       </c>
       <c r="R35" t="n">
-        <v>92.23867028112481</v>
+        <v>92.23867028112483</v>
       </c>
       <c r="S35" t="n">
-        <v>33.46090699510289</v>
+        <v>33.4609069951029</v>
       </c>
       <c r="T35" t="n">
-        <v>6.427871437018664</v>
+        <v>6.427871437018665</v>
       </c>
       <c r="U35" t="n">
         <v>0.1174710942230709</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7856572062336641</v>
+        <v>0.7856572062336643</v>
       </c>
       <c r="H36" t="n">
-        <v>7.587794597046178</v>
+        <v>7.587794597046179</v>
       </c>
       <c r="I36" t="n">
         <v>27.05003977602748</v>
@@ -33745,7 +33745,7 @@
         <v>170.5875438359542</v>
       </c>
       <c r="M36" t="n">
-        <v>199.0676175619244</v>
+        <v>199.0676175619245</v>
       </c>
       <c r="N36" t="n">
         <v>204.3363450546055</v>
@@ -33754,13 +33754,13 @@
         <v>186.9278353796385</v>
       </c>
       <c r="P36" t="n">
-        <v>150.0260677412336</v>
+        <v>150.0260677412337</v>
       </c>
       <c r="Q36" t="n">
         <v>100.2884532027393</v>
       </c>
       <c r="R36" t="n">
-        <v>48.77966408527962</v>
+        <v>48.77966408527963</v>
       </c>
       <c r="S36" t="n">
         <v>14.59323801929634</v>
@@ -33769,7 +33769,7 @@
         <v>3.166749879512005</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05168797409432003</v>
+        <v>0.05168797409432004</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,22 +33806,22 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6586686097702418</v>
+        <v>0.6586686097702419</v>
       </c>
       <c r="H37" t="n">
         <v>5.8561627305027</v>
       </c>
       <c r="I37" t="n">
-        <v>19.80796146472691</v>
+        <v>19.80796146472692</v>
       </c>
       <c r="J37" t="n">
-        <v>46.56787071075609</v>
+        <v>46.5678707107561</v>
       </c>
       <c r="K37" t="n">
-        <v>76.52531666239716</v>
+        <v>76.52531666239717</v>
       </c>
       <c r="L37" t="n">
-        <v>97.9260585834776</v>
+        <v>97.92605858347761</v>
       </c>
       <c r="M37" t="n">
         <v>103.2492985297116</v>
@@ -33830,16 +33830,16 @@
         <v>100.7942609842044</v>
       </c>
       <c r="O37" t="n">
-        <v>93.09981404279748</v>
+        <v>93.09981404279749</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66297440348448</v>
+        <v>79.6629744034845</v>
       </c>
       <c r="Q37" t="n">
-        <v>55.15451422357907</v>
+        <v>55.15451422357908</v>
       </c>
       <c r="R37" t="n">
-        <v>29.61613585385104</v>
+        <v>29.61613585385105</v>
       </c>
       <c r="S37" t="n">
         <v>11.47879749935957</v>
@@ -33848,7 +33848,7 @@
         <v>2.814311332654669</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0359273787147405</v>
+        <v>0.03592737871474051</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,13 +33885,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.468388677788386</v>
+        <v>1.468388677788387</v>
       </c>
       <c r="H38" t="n">
         <v>15.03813554640032</v>
       </c>
       <c r="I38" t="n">
-        <v>56.61005450043682</v>
+        <v>56.61005450043683</v>
       </c>
       <c r="J38" t="n">
         <v>124.6276535414422</v>
@@ -33906,7 +33906,7 @@
         <v>257.8362034187102</v>
       </c>
       <c r="N38" t="n">
-        <v>262.0082627494764</v>
+        <v>262.0082627494765</v>
       </c>
       <c r="O38" t="n">
         <v>247.4069728347182</v>
@@ -33918,13 +33918,13 @@
         <v>158.5694578285207</v>
       </c>
       <c r="R38" t="n">
-        <v>92.23867028112481</v>
+        <v>92.23867028112483</v>
       </c>
       <c r="S38" t="n">
-        <v>33.46090699510289</v>
+        <v>33.4609069951029</v>
       </c>
       <c r="T38" t="n">
-        <v>6.427871437018664</v>
+        <v>6.427871437018665</v>
       </c>
       <c r="U38" t="n">
         <v>0.1174710942230709</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7856572062336641</v>
+        <v>0.7856572062336643</v>
       </c>
       <c r="H39" t="n">
-        <v>7.587794597046178</v>
+        <v>7.587794597046179</v>
       </c>
       <c r="I39" t="n">
         <v>27.05003977602748</v>
@@ -33982,7 +33982,7 @@
         <v>170.5875438359542</v>
       </c>
       <c r="M39" t="n">
-        <v>199.0676175619244</v>
+        <v>199.0676175619245</v>
       </c>
       <c r="N39" t="n">
         <v>204.3363450546055</v>
@@ -33991,13 +33991,13 @@
         <v>186.9278353796385</v>
       </c>
       <c r="P39" t="n">
-        <v>150.0260677412336</v>
+        <v>150.0260677412337</v>
       </c>
       <c r="Q39" t="n">
         <v>100.2884532027393</v>
       </c>
       <c r="R39" t="n">
-        <v>48.77966408527962</v>
+        <v>48.77966408527963</v>
       </c>
       <c r="S39" t="n">
         <v>14.59323801929634</v>
@@ -34006,7 +34006,7 @@
         <v>3.166749879512005</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05168797409432003</v>
+        <v>0.05168797409432004</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,22 +34043,22 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6586686097702418</v>
+        <v>0.6586686097702419</v>
       </c>
       <c r="H40" t="n">
         <v>5.8561627305027</v>
       </c>
       <c r="I40" t="n">
-        <v>19.80796146472691</v>
+        <v>19.80796146472692</v>
       </c>
       <c r="J40" t="n">
-        <v>46.56787071075609</v>
+        <v>46.5678707107561</v>
       </c>
       <c r="K40" t="n">
-        <v>76.52531666239716</v>
+        <v>76.52531666239717</v>
       </c>
       <c r="L40" t="n">
-        <v>97.9260585834776</v>
+        <v>97.92605858347761</v>
       </c>
       <c r="M40" t="n">
         <v>103.2492985297116</v>
@@ -34067,16 +34067,16 @@
         <v>100.7942609842044</v>
       </c>
       <c r="O40" t="n">
-        <v>93.09981404279748</v>
+        <v>93.09981404279749</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66297440348448</v>
+        <v>79.6629744034845</v>
       </c>
       <c r="Q40" t="n">
-        <v>55.15451422357907</v>
+        <v>55.15451422357908</v>
       </c>
       <c r="R40" t="n">
-        <v>29.61613585385104</v>
+        <v>29.61613585385105</v>
       </c>
       <c r="S40" t="n">
         <v>11.47879749935957</v>
@@ -34085,7 +34085,7 @@
         <v>2.814311332654669</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0359273787147405</v>
+        <v>0.03592737871474051</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.468388677788386</v>
+        <v>1.468388677788387</v>
       </c>
       <c r="H41" t="n">
         <v>15.03813554640032</v>
       </c>
       <c r="I41" t="n">
-        <v>56.61005450043682</v>
+        <v>56.61005450043683</v>
       </c>
       <c r="J41" t="n">
         <v>124.6276535414422</v>
@@ -34143,7 +34143,7 @@
         <v>257.8362034187102</v>
       </c>
       <c r="N41" t="n">
-        <v>262.0082627494764</v>
+        <v>262.0082627494765</v>
       </c>
       <c r="O41" t="n">
         <v>247.4069728347182</v>
@@ -34155,13 +34155,13 @@
         <v>158.5694578285207</v>
       </c>
       <c r="R41" t="n">
-        <v>92.23867028112481</v>
+        <v>92.23867028112483</v>
       </c>
       <c r="S41" t="n">
-        <v>33.46090699510289</v>
+        <v>33.4609069951029</v>
       </c>
       <c r="T41" t="n">
-        <v>6.427871437018664</v>
+        <v>6.427871437018665</v>
       </c>
       <c r="U41" t="n">
         <v>0.1174710942230709</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7856572062336641</v>
+        <v>0.7856572062336643</v>
       </c>
       <c r="H42" t="n">
-        <v>7.587794597046178</v>
+        <v>7.587794597046179</v>
       </c>
       <c r="I42" t="n">
         <v>27.05003977602748</v>
@@ -34219,7 +34219,7 @@
         <v>170.5875438359542</v>
       </c>
       <c r="M42" t="n">
-        <v>199.0676175619244</v>
+        <v>199.0676175619245</v>
       </c>
       <c r="N42" t="n">
         <v>204.3363450546055</v>
@@ -34228,13 +34228,13 @@
         <v>186.9278353796385</v>
       </c>
       <c r="P42" t="n">
-        <v>150.0260677412336</v>
+        <v>150.0260677412337</v>
       </c>
       <c r="Q42" t="n">
         <v>100.2884532027393</v>
       </c>
       <c r="R42" t="n">
-        <v>48.77966408527962</v>
+        <v>48.77966408527963</v>
       </c>
       <c r="S42" t="n">
         <v>14.59323801929634</v>
@@ -34243,7 +34243,7 @@
         <v>3.166749879512005</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05168797409432003</v>
+        <v>0.05168797409432004</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,22 +34280,22 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6586686097702418</v>
+        <v>0.6586686097702419</v>
       </c>
       <c r="H43" t="n">
         <v>5.8561627305027</v>
       </c>
       <c r="I43" t="n">
-        <v>19.80796146472691</v>
+        <v>19.80796146472692</v>
       </c>
       <c r="J43" t="n">
-        <v>46.56787071075609</v>
+        <v>46.5678707107561</v>
       </c>
       <c r="K43" t="n">
-        <v>76.52531666239716</v>
+        <v>76.52531666239717</v>
       </c>
       <c r="L43" t="n">
-        <v>97.9260585834776</v>
+        <v>97.92605858347761</v>
       </c>
       <c r="M43" t="n">
         <v>103.2492985297116</v>
@@ -34304,16 +34304,16 @@
         <v>100.7942609842044</v>
       </c>
       <c r="O43" t="n">
-        <v>93.09981404279748</v>
+        <v>93.09981404279749</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66297440348448</v>
+        <v>79.6629744034845</v>
       </c>
       <c r="Q43" t="n">
-        <v>55.15451422357907</v>
+        <v>55.15451422357908</v>
       </c>
       <c r="R43" t="n">
-        <v>29.61613585385104</v>
+        <v>29.61613585385105</v>
       </c>
       <c r="S43" t="n">
         <v>11.47879749935957</v>
@@ -34322,7 +34322,7 @@
         <v>2.814311332654669</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0359273787147405</v>
+        <v>0.03592737871474051</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,13 +34359,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.468388677788386</v>
+        <v>1.468388677788387</v>
       </c>
       <c r="H44" t="n">
         <v>15.03813554640032</v>
       </c>
       <c r="I44" t="n">
-        <v>56.61005450043682</v>
+        <v>56.61005450043683</v>
       </c>
       <c r="J44" t="n">
         <v>124.6276535414422</v>
@@ -34380,7 +34380,7 @@
         <v>257.8362034187102</v>
       </c>
       <c r="N44" t="n">
-        <v>262.0082627494764</v>
+        <v>262.0082627494765</v>
       </c>
       <c r="O44" t="n">
         <v>247.4069728347182</v>
@@ -34392,13 +34392,13 @@
         <v>158.5694578285207</v>
       </c>
       <c r="R44" t="n">
-        <v>92.23867028112481</v>
+        <v>92.23867028112483</v>
       </c>
       <c r="S44" t="n">
-        <v>33.46090699510289</v>
+        <v>33.4609069951029</v>
       </c>
       <c r="T44" t="n">
-        <v>6.427871437018664</v>
+        <v>6.427871437018665</v>
       </c>
       <c r="U44" t="n">
         <v>0.1174710942230709</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7856572062336641</v>
+        <v>0.7856572062336643</v>
       </c>
       <c r="H45" t="n">
-        <v>7.587794597046178</v>
+        <v>7.587794597046179</v>
       </c>
       <c r="I45" t="n">
         <v>27.05003977602748</v>
@@ -34456,7 +34456,7 @@
         <v>170.5875438359542</v>
       </c>
       <c r="M45" t="n">
-        <v>199.0676175619244</v>
+        <v>199.0676175619245</v>
       </c>
       <c r="N45" t="n">
         <v>204.3363450546055</v>
@@ -34465,13 +34465,13 @@
         <v>186.9278353796385</v>
       </c>
       <c r="P45" t="n">
-        <v>150.0260677412336</v>
+        <v>150.0260677412337</v>
       </c>
       <c r="Q45" t="n">
         <v>100.2884532027393</v>
       </c>
       <c r="R45" t="n">
-        <v>48.77966408527962</v>
+        <v>48.77966408527963</v>
       </c>
       <c r="S45" t="n">
         <v>14.59323801929634</v>
@@ -34480,7 +34480,7 @@
         <v>3.166749879512005</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05168797409432003</v>
+        <v>0.05168797409432004</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,22 +34517,22 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6586686097702418</v>
+        <v>0.6586686097702419</v>
       </c>
       <c r="H46" t="n">
         <v>5.8561627305027</v>
       </c>
       <c r="I46" t="n">
-        <v>19.80796146472691</v>
+        <v>19.80796146472692</v>
       </c>
       <c r="J46" t="n">
-        <v>46.56787071075609</v>
+        <v>46.5678707107561</v>
       </c>
       <c r="K46" t="n">
-        <v>76.52531666239716</v>
+        <v>76.52531666239717</v>
       </c>
       <c r="L46" t="n">
-        <v>97.9260585834776</v>
+        <v>97.92605858347761</v>
       </c>
       <c r="M46" t="n">
         <v>103.2492985297116</v>
@@ -34541,16 +34541,16 @@
         <v>100.7942609842044</v>
       </c>
       <c r="O46" t="n">
-        <v>93.09981404279748</v>
+        <v>93.09981404279749</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66297440348448</v>
+        <v>79.6629744034845</v>
       </c>
       <c r="Q46" t="n">
-        <v>55.15451422357907</v>
+        <v>55.15451422357908</v>
       </c>
       <c r="R46" t="n">
-        <v>29.61613585385104</v>
+        <v>29.61613585385105</v>
       </c>
       <c r="S46" t="n">
         <v>11.47879749935957</v>
@@ -34559,7 +34559,7 @@
         <v>2.814311332654669</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0359273787147405</v>
+        <v>0.03592737871474051</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,16 +34698,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>26.98029760220071</v>
       </c>
       <c r="L2" t="n">
-        <v>26.98029760220071</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>28.11631013281968</v>
       </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>19.45843602451198</v>
+      </c>
+      <c r="P3" t="n">
         <v>28.11631013281968</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>28.11631013281968</v>
       </c>
       <c r="R3" t="n">
-        <v>19.45843602451199</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,25 +34856,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
         <v>26.98029760220071</v>
       </c>
-      <c r="K4" t="n">
+      <c r="O4" t="n">
         <v>28.11631013281968</v>
       </c>
-      <c r="L4" t="n">
+      <c r="P4" t="n">
         <v>28.11631013281968</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>28.11631013281968</v>
@@ -34938,10 +34938,10 @@
         <v>28.11631013281968</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>26.98029760220071</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34950,16 +34950,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
         <v>28.11631013281968</v>
-      </c>
-      <c r="P5" t="n">
-        <v>28.11631013281968</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>26.98029760220071</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>19.45843602451198</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>28.11631013281968</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>19.45843602451198</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>28.11631013281968</v>
@@ -35093,22 +35093,22 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="K7" t="n">
+        <v>28.11631013281968</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
         <v>26.98029760220071</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>28.11631013281968</v>
-      </c>
-      <c r="O7" t="n">
-        <v>28.11631013281968</v>
       </c>
       <c r="P7" t="n">
         <v>28.11631013281968</v>
@@ -35172,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
+        <v>28.11631013281968</v>
+      </c>
+      <c r="K8" t="n">
+        <v>28.11631013281968</v>
+      </c>
+      <c r="L8" t="n">
         <v>26.98029760220071</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35193,10 +35193,10 @@
         <v>28.11631013281968</v>
       </c>
       <c r="Q8" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,14 +35254,14 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>19.45843602451198</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
         <v>28.11631013281968</v>
       </c>
-      <c r="L9" t="n">
-        <v>19.45843602451198</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
@@ -35269,13 +35269,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>28.11631013281968</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,25 +35330,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
         <v>28.11631013281968</v>
-      </c>
-      <c r="K10" t="n">
-        <v>26.98029760220071</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>28.11631013281968</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>26.98029760220071</v>
       </c>
       <c r="P10" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35406,10 +35406,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>22.06215195647331</v>
+        <v>22.06215195647333</v>
       </c>
       <c r="J11" t="n">
-        <v>95.20769405585565</v>
+        <v>490.8937735585083</v>
       </c>
       <c r="K11" t="n">
         <v>151.0199454774153</v>
@@ -35418,22 +35418,22 @@
         <v>193.4107038374681</v>
       </c>
       <c r="M11" t="n">
-        <v>220.4049405192783</v>
+        <v>220.4049405192784</v>
       </c>
       <c r="N11" t="n">
-        <v>448.3483981898405</v>
+        <v>224.7286399150305</v>
       </c>
       <c r="O11" t="n">
-        <v>721.138605732687</v>
+        <v>210.0160134786941</v>
       </c>
       <c r="P11" t="n">
-        <v>173.5807655415861</v>
+        <v>512.6370365677361</v>
       </c>
       <c r="Q11" t="n">
         <v>619.2618613680996</v>
       </c>
       <c r="R11" t="n">
-        <v>210.9824428891072</v>
+        <v>210.9824428891073</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>10.87765302602747</v>
+        <v>34.57190135371621</v>
       </c>
       <c r="J12" t="n">
         <v>348.6692850276065</v>
       </c>
       <c r="K12" t="n">
-        <v>538.9975299081666</v>
+        <v>104.4671756487053</v>
       </c>
       <c r="L12" t="n">
         <v>148.0724571217246</v>
@@ -35500,19 +35500,19 @@
         <v>175.9708370495965</v>
       </c>
       <c r="N12" t="n">
-        <v>182.9933168410638</v>
+        <v>182.9933168410639</v>
       </c>
       <c r="O12" t="n">
-        <v>163.7559456574162</v>
+        <v>163.7559456574163</v>
       </c>
       <c r="P12" t="n">
         <v>128.255226536405</v>
       </c>
       <c r="Q12" t="n">
-        <v>77.5414149137608</v>
+        <v>381.8568134870424</v>
       </c>
       <c r="R12" t="n">
-        <v>25.10674469113548</v>
+        <v>131.6274520496262</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>104.6399194220268</v>
+        <v>104.6399194220269</v>
       </c>
       <c r="K13" t="n">
         <v>305.3410754561721</v>
       </c>
       <c r="L13" t="n">
-        <v>456.1981002950137</v>
+        <v>456.1981002950138</v>
       </c>
       <c r="M13" t="n">
         <v>498.3864651663286</v>
@@ -35582,7 +35582,7 @@
         <v>482.0988174246446</v>
       </c>
       <c r="O13" t="n">
-        <v>452.1181258405379</v>
+        <v>452.118125840538</v>
       </c>
       <c r="P13" t="n">
         <v>373.1975319003542</v>
@@ -35643,25 +35643,25 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>22.06215195647331</v>
+        <v>22.06215195647333</v>
       </c>
       <c r="J14" t="n">
-        <v>95.20769405585565</v>
+        <v>490.8937735585083</v>
       </c>
       <c r="K14" t="n">
-        <v>151.0199454774153</v>
+        <v>721.1386057326869</v>
       </c>
       <c r="L14" t="n">
-        <v>193.4107038374681</v>
+        <v>612.9418152553022</v>
       </c>
       <c r="M14" t="n">
-        <v>598.2082336233872</v>
+        <v>220.4049405192784</v>
       </c>
       <c r="N14" t="n">
-        <v>721.1386057326868</v>
+        <v>224.7286399150305</v>
       </c>
       <c r="O14" t="n">
-        <v>721.1386057326868</v>
+        <v>210.0160134786941</v>
       </c>
       <c r="P14" t="n">
         <v>173.5807655415861</v>
@@ -35670,7 +35670,7 @@
         <v>122.4447832239227</v>
       </c>
       <c r="R14" t="n">
-        <v>57.20602038632834</v>
+        <v>57.20602038632835</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>10.87765302602747</v>
+        <v>34.57190135371621</v>
       </c>
       <c r="J15" t="n">
-        <v>291.6187859851808</v>
+        <v>348.6692850276065</v>
       </c>
       <c r="K15" t="n">
         <v>104.4671756487053</v>
@@ -35737,19 +35737,19 @@
         <v>175.9708370495965</v>
       </c>
       <c r="N15" t="n">
-        <v>182.9933168410638</v>
+        <v>182.9933168410639</v>
       </c>
       <c r="O15" t="n">
-        <v>163.7559456574162</v>
+        <v>163.7559456574163</v>
       </c>
       <c r="P15" t="n">
         <v>128.255226536405</v>
       </c>
       <c r="Q15" t="n">
-        <v>569.1222682156478</v>
+        <v>381.8568134870424</v>
       </c>
       <c r="R15" t="n">
-        <v>25.10674469113548</v>
+        <v>131.6274520496262</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35810,7 +35810,7 @@
         <v>305.3410754561721</v>
       </c>
       <c r="L16" t="n">
-        <v>456.1981002950137</v>
+        <v>456.1981002950138</v>
       </c>
       <c r="M16" t="n">
         <v>498.3864651663286</v>
@@ -35819,7 +35819,7 @@
         <v>482.0988174246446</v>
       </c>
       <c r="O16" t="n">
-        <v>452.1181258405379</v>
+        <v>452.118125840538</v>
       </c>
       <c r="P16" t="n">
         <v>373.1975319003542</v>
@@ -35880,22 +35880,22 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>22.06215195647331</v>
+        <v>22.06215195647333</v>
       </c>
       <c r="J17" t="n">
         <v>490.8937735585083</v>
       </c>
       <c r="K17" t="n">
-        <v>151.0199454774153</v>
+        <v>643.8526390063438</v>
       </c>
       <c r="L17" t="n">
-        <v>721.1386057326868</v>
+        <v>193.4107038374681</v>
       </c>
       <c r="M17" t="n">
-        <v>220.4049405192783</v>
+        <v>220.4049405192784</v>
       </c>
       <c r="N17" t="n">
-        <v>532.8740871901384</v>
+        <v>224.7286399150305</v>
       </c>
       <c r="O17" t="n">
         <v>210.0160134786941</v>
@@ -35904,10 +35904,10 @@
         <v>173.5807655415861</v>
       </c>
       <c r="Q17" t="n">
-        <v>122.4447832239227</v>
+        <v>619.2618613680996</v>
       </c>
       <c r="R17" t="n">
-        <v>210.9824428891072</v>
+        <v>57.20602038632835</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>10.87765302602747</v>
+        <v>34.57190135371621</v>
       </c>
       <c r="J18" t="n">
-        <v>53.61626233104984</v>
+        <v>348.6692850276065</v>
       </c>
       <c r="K18" t="n">
-        <v>189.3845563546096</v>
+        <v>104.4671756487053</v>
       </c>
       <c r="L18" t="n">
         <v>148.0724571217246</v>
@@ -35974,16 +35974,16 @@
         <v>175.9708370495965</v>
       </c>
       <c r="N18" t="n">
-        <v>721.1386057326868</v>
+        <v>182.9933168410639</v>
       </c>
       <c r="O18" t="n">
-        <v>163.7559456574162</v>
+        <v>163.7559456574163</v>
       </c>
       <c r="P18" t="n">
         <v>128.255226536405</v>
       </c>
       <c r="Q18" t="n">
-        <v>77.5414149137608</v>
+        <v>381.8568134870424</v>
       </c>
       <c r="R18" t="n">
         <v>131.6274520496262</v>
@@ -36047,7 +36047,7 @@
         <v>305.3410754561721</v>
       </c>
       <c r="L19" t="n">
-        <v>456.1981002950137</v>
+        <v>456.1981002950138</v>
       </c>
       <c r="M19" t="n">
         <v>498.3864651663286</v>
@@ -36056,10 +36056,10 @@
         <v>482.0988174246446</v>
       </c>
       <c r="O19" t="n">
-        <v>452.1181258405379</v>
+        <v>452.118125840538</v>
       </c>
       <c r="P19" t="n">
-        <v>373.1975319003542</v>
+        <v>373.1975319003545</v>
       </c>
       <c r="Q19" t="n">
         <v>183.4374740627325</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>22.06215195647331</v>
+        <v>22.06215195647333</v>
       </c>
       <c r="J20" t="n">
-        <v>95.20769405585565</v>
+        <v>490.8937735585083</v>
       </c>
       <c r="K20" t="n">
         <v>151.0199454774153</v>
       </c>
       <c r="L20" t="n">
-        <v>380.5952141751695</v>
+        <v>193.4107038374681</v>
       </c>
       <c r="M20" t="n">
-        <v>220.4049405192783</v>
+        <v>220.4049405192784</v>
       </c>
       <c r="N20" t="n">
-        <v>224.7286399150304</v>
+        <v>224.7286399150305</v>
       </c>
       <c r="O20" t="n">
         <v>210.0160134786941</v>
       </c>
       <c r="P20" t="n">
-        <v>721.1386057326868</v>
+        <v>512.6370365677361</v>
       </c>
       <c r="Q20" t="n">
         <v>619.2618613680996</v>
       </c>
       <c r="R20" t="n">
-        <v>210.9824428891072</v>
+        <v>210.9824428891073</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.5719013537162</v>
+        <v>10.87765302602748</v>
       </c>
       <c r="J21" t="n">
-        <v>348.6692850276065</v>
+        <v>291.6187859851807</v>
       </c>
       <c r="K21" t="n">
-        <v>408.7825742219871</v>
+        <v>104.4671756487053</v>
       </c>
       <c r="L21" t="n">
         <v>148.0724571217246</v>
@@ -36211,19 +36211,19 @@
         <v>175.9708370495965</v>
       </c>
       <c r="N21" t="n">
-        <v>182.9933168410638</v>
+        <v>182.9933168410639</v>
       </c>
       <c r="O21" t="n">
-        <v>163.7559456574162</v>
+        <v>163.7559456574163</v>
       </c>
       <c r="P21" t="n">
         <v>128.255226536405</v>
       </c>
       <c r="Q21" t="n">
-        <v>77.5414149137608</v>
+        <v>569.1222682156478</v>
       </c>
       <c r="R21" t="n">
-        <v>131.6274520496262</v>
+        <v>25.10674469113548</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36284,7 +36284,7 @@
         <v>305.3410754561721</v>
       </c>
       <c r="L22" t="n">
-        <v>456.1981002950137</v>
+        <v>456.1981002950138</v>
       </c>
       <c r="M22" t="n">
         <v>498.3864651663286</v>
@@ -36293,7 +36293,7 @@
         <v>482.0988174246446</v>
       </c>
       <c r="O22" t="n">
-        <v>452.1181258405379</v>
+        <v>452.118125840538</v>
       </c>
       <c r="P22" t="n">
         <v>373.1975319003542</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>22.06215195647331</v>
+        <v>22.06215195647333</v>
       </c>
       <c r="J23" t="n">
-        <v>95.20769405585565</v>
+        <v>490.8937735585083</v>
       </c>
       <c r="K23" t="n">
         <v>909.5202108939408</v>
       </c>
       <c r="L23" t="n">
-        <v>1170.737945885522</v>
+        <v>245.0258549466682</v>
       </c>
       <c r="M23" t="n">
-        <v>1255.319509127562</v>
+        <v>220.4049405192784</v>
       </c>
       <c r="N23" t="n">
-        <v>954.462961793595</v>
+        <v>224.7286399150305</v>
       </c>
       <c r="O23" t="n">
-        <v>210.0160134786941</v>
+        <v>1101.088437633518</v>
       </c>
       <c r="P23" t="n">
-        <v>173.5807655415861</v>
+        <v>926.5897426628554</v>
       </c>
       <c r="Q23" t="n">
-        <v>122.4447832239227</v>
+        <v>619.2618613680996</v>
       </c>
       <c r="R23" t="n">
-        <v>57.20602038632834</v>
+        <v>210.9824428891073</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>10.87765302602747</v>
+        <v>34.57190135371621</v>
       </c>
       <c r="J24" t="n">
-        <v>53.61626233104984</v>
+        <v>161.4038302990012</v>
       </c>
       <c r="K24" t="n">
         <v>104.4671756487053</v>
@@ -36448,19 +36448,19 @@
         <v>175.9708370495965</v>
       </c>
       <c r="N24" t="n">
-        <v>182.9933168410638</v>
+        <v>182.9933168410639</v>
       </c>
       <c r="O24" t="n">
-        <v>893.3393226134341</v>
+        <v>163.7559456574163</v>
       </c>
       <c r="P24" t="n">
         <v>128.255226536405</v>
       </c>
       <c r="Q24" t="n">
-        <v>77.5414149137608</v>
+        <v>569.1222682156478</v>
       </c>
       <c r="R24" t="n">
-        <v>25.10674469113548</v>
+        <v>131.6274520496262</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36521,7 +36521,7 @@
         <v>305.3410754561721</v>
       </c>
       <c r="L25" t="n">
-        <v>456.1981002950137</v>
+        <v>456.1981002950138</v>
       </c>
       <c r="M25" t="n">
         <v>498.3864651663286</v>
@@ -36530,7 +36530,7 @@
         <v>482.0988174246446</v>
       </c>
       <c r="O25" t="n">
-        <v>452.1181258405379</v>
+        <v>452.118125840538</v>
       </c>
       <c r="P25" t="n">
         <v>373.1975319003542</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>22.06215195647331</v>
+        <v>22.06215195647333</v>
       </c>
       <c r="J26" t="n">
         <v>490.8937735585083</v>
@@ -36600,25 +36600,25 @@
         <v>909.5202108939408</v>
       </c>
       <c r="L26" t="n">
-        <v>1170.737945885522</v>
+        <v>193.4107038374681</v>
       </c>
       <c r="M26" t="n">
-        <v>220.4049405192783</v>
+        <v>220.4049405192784</v>
       </c>
       <c r="N26" t="n">
-        <v>224.7286399150304</v>
+        <v>276.3437910242287</v>
       </c>
       <c r="O26" t="n">
-        <v>1082.161746318712</v>
+        <v>1101.088437633518</v>
       </c>
       <c r="P26" t="n">
-        <v>173.5807655415861</v>
+        <v>926.5897426628554</v>
       </c>
       <c r="Q26" t="n">
         <v>619.2618613680996</v>
       </c>
       <c r="R26" t="n">
-        <v>57.20602038632834</v>
+        <v>210.9824428891073</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>10.87765302602747</v>
+        <v>34.57190135371621</v>
       </c>
       <c r="J27" t="n">
-        <v>53.61626233104984</v>
+        <v>348.6692850276065</v>
       </c>
       <c r="K27" t="n">
         <v>104.4671756487053</v>
       </c>
       <c r="L27" t="n">
-        <v>877.6558340777424</v>
+        <v>148.0724571217246</v>
       </c>
       <c r="M27" t="n">
         <v>175.9708370495965</v>
       </c>
       <c r="N27" t="n">
-        <v>182.9933168410638</v>
+        <v>182.9933168410639</v>
       </c>
       <c r="O27" t="n">
-        <v>163.7559456574162</v>
+        <v>163.7559456574163</v>
       </c>
       <c r="P27" t="n">
         <v>128.255226536405</v>
       </c>
       <c r="Q27" t="n">
-        <v>77.5414149137608</v>
+        <v>381.8568134870424</v>
       </c>
       <c r="R27" t="n">
-        <v>25.10674469113548</v>
+        <v>131.6274520496262</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36758,7 +36758,7 @@
         <v>305.3410754561721</v>
       </c>
       <c r="L28" t="n">
-        <v>456.1981002950137</v>
+        <v>456.1981002950138</v>
       </c>
       <c r="M28" t="n">
         <v>498.3864651663286</v>
@@ -36767,7 +36767,7 @@
         <v>482.0988174246446</v>
       </c>
       <c r="O28" t="n">
-        <v>452.1181258405379</v>
+        <v>452.118125840538</v>
       </c>
       <c r="P28" t="n">
         <v>373.1975319003542</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>22.06215195647331</v>
+        <v>22.06215195647333</v>
       </c>
       <c r="J29" t="n">
-        <v>95.20769405585565</v>
+        <v>490.8937735585083</v>
       </c>
       <c r="K29" t="n">
-        <v>151.0199454774153</v>
+        <v>909.5202108939408</v>
       </c>
       <c r="L29" t="n">
-        <v>1170.737945885522</v>
+        <v>193.4107038374681</v>
       </c>
       <c r="M29" t="n">
-        <v>220.4049405192783</v>
+        <v>220.4049405192784</v>
       </c>
       <c r="N29" t="n">
-        <v>1248.120443039073</v>
+        <v>276.3437910242305</v>
       </c>
       <c r="O29" t="n">
         <v>1101.088437633518</v>
       </c>
       <c r="P29" t="n">
-        <v>782.2656941660938</v>
+        <v>926.5897426628554</v>
       </c>
       <c r="Q29" t="n">
-        <v>122.4447832239227</v>
+        <v>619.2618613680996</v>
       </c>
       <c r="R29" t="n">
-        <v>57.20602038632834</v>
+        <v>210.9824428891073</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>10.87765302602747</v>
+        <v>34.57190135371621</v>
       </c>
       <c r="J30" t="n">
-        <v>53.61626233104984</v>
+        <v>348.6692850276065</v>
       </c>
       <c r="K30" t="n">
         <v>104.4671756487053</v>
@@ -36922,19 +36922,19 @@
         <v>175.9708370495965</v>
       </c>
       <c r="N30" t="n">
-        <v>912.5766937970818</v>
+        <v>182.9933168410639</v>
       </c>
       <c r="O30" t="n">
-        <v>163.7559456574162</v>
+        <v>163.7559456574163</v>
       </c>
       <c r="P30" t="n">
         <v>128.255226536405</v>
       </c>
       <c r="Q30" t="n">
-        <v>77.5414149137608</v>
+        <v>381.8568134870424</v>
       </c>
       <c r="R30" t="n">
-        <v>25.10674469113548</v>
+        <v>131.6274520496262</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36995,7 +36995,7 @@
         <v>305.3410754561721</v>
       </c>
       <c r="L31" t="n">
-        <v>456.1981002950137</v>
+        <v>456.1981002950138</v>
       </c>
       <c r="M31" t="n">
         <v>498.3864651663286</v>
@@ -37004,7 +37004,7 @@
         <v>482.0988174246446</v>
       </c>
       <c r="O31" t="n">
-        <v>452.1181258405379</v>
+        <v>452.118125840538</v>
       </c>
       <c r="P31" t="n">
         <v>373.1975319003542</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>22.06215195647331</v>
+        <v>22.06215195647333</v>
       </c>
       <c r="J32" t="n">
         <v>490.8937735585083</v>
@@ -37074,25 +37074,25 @@
         <v>909.5202108939408</v>
       </c>
       <c r="L32" t="n">
-        <v>193.4107038374681</v>
+        <v>1136.098279101493</v>
       </c>
       <c r="M32" t="n">
-        <v>1255.319509127563</v>
+        <v>220.4049405192784</v>
       </c>
       <c r="N32" t="n">
-        <v>1248.120443039073</v>
+        <v>224.7286399150305</v>
       </c>
       <c r="O32" t="n">
         <v>210.0160134786941</v>
       </c>
       <c r="P32" t="n">
-        <v>173.5807655415861</v>
+        <v>926.5897426628554</v>
       </c>
       <c r="Q32" t="n">
-        <v>256.6520420210674</v>
+        <v>619.2618613680996</v>
       </c>
       <c r="R32" t="n">
-        <v>210.9824428891072</v>
+        <v>210.9824428891073</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>10.87765302602747</v>
+        <v>34.57190135371621</v>
       </c>
       <c r="J33" t="n">
-        <v>53.61626233104984</v>
+        <v>348.6692850276065</v>
       </c>
       <c r="K33" t="n">
         <v>104.4671756487053</v>
@@ -37159,19 +37159,19 @@
         <v>175.9708370495965</v>
       </c>
       <c r="N33" t="n">
-        <v>182.9933168410638</v>
+        <v>182.9933168410639</v>
       </c>
       <c r="O33" t="n">
-        <v>163.7559456574162</v>
+        <v>163.7559456574163</v>
       </c>
       <c r="P33" t="n">
-        <v>857.8386034924227</v>
+        <v>128.255226536405</v>
       </c>
       <c r="Q33" t="n">
-        <v>77.5414149137608</v>
+        <v>381.8568134870424</v>
       </c>
       <c r="R33" t="n">
-        <v>25.10674469113548</v>
+        <v>131.6274520496262</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37232,7 +37232,7 @@
         <v>305.3410754561721</v>
       </c>
       <c r="L34" t="n">
-        <v>456.1981002950137</v>
+        <v>456.1981002950138</v>
       </c>
       <c r="M34" t="n">
         <v>498.3864651663286</v>
@@ -37241,7 +37241,7 @@
         <v>482.0988174246446</v>
       </c>
       <c r="O34" t="n">
-        <v>452.1181258405379</v>
+        <v>452.118125840538</v>
       </c>
       <c r="P34" t="n">
         <v>373.1975319003542</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>22.06215195647331</v>
+        <v>22.06215195647333</v>
       </c>
       <c r="J35" t="n">
-        <v>255.9147972601557</v>
+        <v>490.8937735585083</v>
       </c>
       <c r="K35" t="n">
-        <v>721.138605732687</v>
+        <v>151.0199454774153</v>
       </c>
       <c r="L35" t="n">
         <v>193.4107038374681</v>
       </c>
       <c r="M35" t="n">
-        <v>721.138605732687</v>
+        <v>220.4049405192784</v>
       </c>
       <c r="N35" t="n">
-        <v>224.7286399150304</v>
+        <v>224.7286399150305</v>
       </c>
       <c r="O35" t="n">
         <v>210.0160134786941</v>
       </c>
       <c r="P35" t="n">
-        <v>173.5807655415861</v>
+        <v>512.6370365677361</v>
       </c>
       <c r="Q35" t="n">
-        <v>122.4447832239227</v>
+        <v>619.2618613680996</v>
       </c>
       <c r="R35" t="n">
-        <v>210.9824428891072</v>
+        <v>210.9824428891073</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>10.87765302602747</v>
+        <v>34.57190135371621</v>
       </c>
       <c r="J36" t="n">
         <v>348.6692850276065</v>
       </c>
       <c r="K36" t="n">
-        <v>104.4671756487053</v>
+        <v>408.7825742219869</v>
       </c>
       <c r="L36" t="n">
         <v>148.0724571217246</v>
@@ -37396,19 +37396,19 @@
         <v>175.9708370495965</v>
       </c>
       <c r="N36" t="n">
-        <v>182.9933168410638</v>
+        <v>182.9933168410639</v>
       </c>
       <c r="O36" t="n">
-        <v>163.7559456574162</v>
+        <v>163.7559456574163</v>
       </c>
       <c r="P36" t="n">
         <v>128.255226536405</v>
       </c>
       <c r="Q36" t="n">
-        <v>512.0717691732222</v>
+        <v>77.54141491376083</v>
       </c>
       <c r="R36" t="n">
-        <v>25.10674469113548</v>
+        <v>131.6274520496262</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37466,10 +37466,10 @@
         <v>104.6399194220268</v>
       </c>
       <c r="K37" t="n">
-        <v>305.341075456173</v>
+        <v>305.3410754561721</v>
       </c>
       <c r="L37" t="n">
-        <v>456.1981002950137</v>
+        <v>456.1981002950138</v>
       </c>
       <c r="M37" t="n">
         <v>498.3864651663286</v>
@@ -37478,7 +37478,7 @@
         <v>482.0988174246446</v>
       </c>
       <c r="O37" t="n">
-        <v>452.1181258405379</v>
+        <v>452.118125840538</v>
       </c>
       <c r="P37" t="n">
         <v>373.1975319003542</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>22.06215195647331</v>
+        <v>22.06215195647333</v>
       </c>
       <c r="J38" t="n">
-        <v>490.8937735585083</v>
+        <v>95.20769405585565</v>
       </c>
       <c r="K38" t="n">
-        <v>490.0762165035657</v>
+        <v>338.2044558151175</v>
       </c>
       <c r="L38" t="n">
         <v>193.4107038374681</v>
       </c>
       <c r="M38" t="n">
-        <v>220.4049405192783</v>
+        <v>220.4049405192784</v>
       </c>
       <c r="N38" t="n">
-        <v>224.7286399150304</v>
+        <v>224.7286399150305</v>
       </c>
       <c r="O38" t="n">
         <v>210.0160134786941</v>
       </c>
       <c r="P38" t="n">
-        <v>173.5807655415861</v>
+        <v>721.138605732687</v>
       </c>
       <c r="Q38" t="n">
         <v>619.2618613680996</v>
       </c>
       <c r="R38" t="n">
-        <v>210.9824428891072</v>
+        <v>210.9824428891073</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.5719013537162</v>
+        <v>34.57190135371621</v>
       </c>
       <c r="J39" t="n">
         <v>348.6692850276065</v>
@@ -37633,19 +37633,19 @@
         <v>175.9708370495965</v>
       </c>
       <c r="N39" t="n">
-        <v>182.9933168410638</v>
+        <v>182.9933168410639</v>
       </c>
       <c r="O39" t="n">
-        <v>574.5920515891887</v>
+        <v>163.7559456574163</v>
       </c>
       <c r="P39" t="n">
         <v>128.255226536405</v>
       </c>
       <c r="Q39" t="n">
-        <v>77.5414149137608</v>
+        <v>381.8568134870424</v>
       </c>
       <c r="R39" t="n">
-        <v>25.10674469113548</v>
+        <v>131.6274520496262</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37706,16 +37706,16 @@
         <v>305.3410754561721</v>
       </c>
       <c r="L40" t="n">
-        <v>456.1981002950137</v>
+        <v>456.1981002950138</v>
       </c>
       <c r="M40" t="n">
-        <v>498.3864651663294</v>
+        <v>498.3864651663286</v>
       </c>
       <c r="N40" t="n">
         <v>482.0988174246446</v>
       </c>
       <c r="O40" t="n">
-        <v>452.1181258405379</v>
+        <v>452.1181258405387</v>
       </c>
       <c r="P40" t="n">
         <v>373.1975319003542</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>22.06215195647331</v>
+        <v>22.06215195647333</v>
       </c>
       <c r="J41" t="n">
-        <v>302.2221426894397</v>
+        <v>95.20769405585565</v>
       </c>
       <c r="K41" t="n">
         <v>151.0199454774153</v>
       </c>
       <c r="L41" t="n">
+        <v>193.4107038374681</v>
+      </c>
+      <c r="M41" t="n">
         <v>721.138605732687</v>
       </c>
-      <c r="M41" t="n">
-        <v>220.4049405192783</v>
-      </c>
       <c r="N41" t="n">
-        <v>224.7286399150304</v>
+        <v>224.7286399150305</v>
       </c>
       <c r="O41" t="n">
         <v>210.0160134786941</v>
       </c>
       <c r="P41" t="n">
-        <v>173.5807655415861</v>
+        <v>407.5894508569808</v>
       </c>
       <c r="Q41" t="n">
         <v>619.2618613680996</v>
       </c>
       <c r="R41" t="n">
-        <v>210.9824428891072</v>
+        <v>210.9824428891073</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>10.87765302602747</v>
+        <v>34.57190135371621</v>
       </c>
       <c r="J42" t="n">
-        <v>291.6187859851808</v>
+        <v>348.6692850276065</v>
       </c>
       <c r="K42" t="n">
         <v>104.4671756487053</v>
@@ -37870,19 +37870,19 @@
         <v>175.9708370495965</v>
       </c>
       <c r="N42" t="n">
-        <v>182.9933168410638</v>
+        <v>182.9933168410639</v>
       </c>
       <c r="O42" t="n">
-        <v>163.7559456574162</v>
+        <v>163.7559456574163</v>
       </c>
       <c r="P42" t="n">
         <v>128.255226536405</v>
       </c>
       <c r="Q42" t="n">
-        <v>569.1222682156478</v>
+        <v>381.8568134870424</v>
       </c>
       <c r="R42" t="n">
-        <v>25.10674469113548</v>
+        <v>131.6274520496262</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37943,7 +37943,7 @@
         <v>305.3410754561721</v>
       </c>
       <c r="L43" t="n">
-        <v>456.1981002950137</v>
+        <v>456.1981002950138</v>
       </c>
       <c r="M43" t="n">
         <v>498.3864651663286</v>
@@ -37952,7 +37952,7 @@
         <v>482.0988174246446</v>
       </c>
       <c r="O43" t="n">
-        <v>452.1181258405379</v>
+        <v>452.118125840538</v>
       </c>
       <c r="P43" t="n">
         <v>373.1975319003542</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>22.06215195647331</v>
+        <v>22.06215195647333</v>
       </c>
       <c r="J44" t="n">
-        <v>490.8937735585083</v>
+        <v>95.20769405585565</v>
       </c>
       <c r="K44" t="n">
         <v>151.0199454774153</v>
       </c>
       <c r="L44" t="n">
-        <v>193.4107038374681</v>
+        <v>581.6029239821619</v>
       </c>
       <c r="M44" t="n">
-        <v>220.4049405192783</v>
+        <v>721.138605732687</v>
       </c>
       <c r="N44" t="n">
-        <v>224.7286399150304</v>
+        <v>721.138605732687</v>
       </c>
       <c r="O44" t="n">
         <v>210.0160134786941</v>
       </c>
       <c r="P44" t="n">
-        <v>512.6370365677366</v>
+        <v>173.5807655415861</v>
       </c>
       <c r="Q44" t="n">
-        <v>619.2618613680996</v>
+        <v>122.4447832239227</v>
       </c>
       <c r="R44" t="n">
-        <v>210.9824428891072</v>
+        <v>57.20602038632835</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>10.87765302602747</v>
+        <v>34.57190135371621</v>
       </c>
       <c r="J45" t="n">
         <v>348.6692850276065</v>
@@ -38104,19 +38104,19 @@
         <v>148.0724571217246</v>
       </c>
       <c r="M45" t="n">
-        <v>503.980483950567</v>
+        <v>175.9708370495965</v>
       </c>
       <c r="N45" t="n">
-        <v>182.9933168410638</v>
+        <v>182.9933168410639</v>
       </c>
       <c r="O45" t="n">
-        <v>163.7559456574162</v>
+        <v>163.7559456574163</v>
       </c>
       <c r="P45" t="n">
         <v>128.255226536405</v>
       </c>
       <c r="Q45" t="n">
-        <v>77.5414149137608</v>
+        <v>381.8568134870424</v>
       </c>
       <c r="R45" t="n">
         <v>131.6274520496262</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>104.6399194220277</v>
+        <v>104.6399194220268</v>
       </c>
       <c r="K46" t="n">
         <v>305.3410754561721</v>
       </c>
       <c r="L46" t="n">
-        <v>456.1981002950137</v>
+        <v>456.1981002950138</v>
       </c>
       <c r="M46" t="n">
         <v>498.3864651663286</v>
@@ -38189,7 +38189,7 @@
         <v>482.0988174246446</v>
       </c>
       <c r="O46" t="n">
-        <v>452.1181258405379</v>
+        <v>452.118125840538</v>
       </c>
       <c r="P46" t="n">
         <v>373.1975319003542</v>
